--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{385BDAA7-DA13-401D-9B81-CE648C617622}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{325A0FFF-CC53-4DA9-93FD-3F7141092212}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55455" yWindow="0" windowWidth="17790" windowHeight="5610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60105" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -24,13 +24,13 @@
     <sheet name="addresses" sheetId="10" r:id="rId14"/>
     <sheet name="cards" sheetId="9" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="423">
   <si>
     <t>Accept</t>
   </si>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>invalidUserEmail</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>Try to login with invalid password</t>
@@ -1149,164 +1146,7 @@
     <t>EmailValidation:Username already taken.</t>
   </si>
   <si>
-    <t>firstNameValidation:Please enter your first name
-lastNameValidation:Please enter your last name
-EmailValidation:Please enter your email address.
-PasswordValidation:Please enter a password with at least 8 characters
-PasswordConfValidation:Please enter a password with at least 8 characters</t>
-  </si>
-  <si>
     <t>Enter no data to validate the error messages</t>
-  </si>
-  <si>
-    <t>Password11</t>
-  </si>
-  <si>
-    <t>tester_000@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_001@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_002@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_003@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_004@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_005@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_006@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_007@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_008@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_009@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0010@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0011@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0012@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0013@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0014@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0015@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0016@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0017@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0018@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0019@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0020@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0021@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0022@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0024@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0025@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0026@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0027@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0028@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0029@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0030@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0031@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0032@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0033@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0034@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0035@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0036@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0037@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0038@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0039@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0040@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0041@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0042@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0043@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0044@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0045@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0046@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0047@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0048@cbk.com</t>
-  </si>
-  <si>
-    <t>tester_0049@cbk.com</t>
   </si>
   <si>
     <t>U-35</t>
@@ -1524,10 +1364,37 @@
     <t>AC-51</t>
   </si>
   <si>
-    <t>mahelemy@gmail.com</t>
-  </si>
-  <si>
     <t>COB-20</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Studen</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>borarufy@gmail.com</t>
+  </si>
+  <si>
+    <t>P@ssword11</t>
+  </si>
+  <si>
+    <t>REG-05</t>
+  </si>
+  <si>
+    <t>firstNameValidation:Please enter your first name
+lastNameValidation:Please enter your last name
+EmailValidation:Please enter your email address.
+PasswordValidation:Please enter a password
+PasswordConfValidation:Please confirm your password
+schoolValidation:Please enter your school
+AcceptTermsValidation:Please Accept the Terms &amp; Conditions to register.</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1644,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1973,6 +1840,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2334,7 +2207,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>50</v>
@@ -2342,13 +2215,13 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>49</v>
@@ -2356,7 +2229,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>49</v>
@@ -2411,7 +2284,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="19" t="s">
@@ -2421,13 +2294,13 @@
         <v>124</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
@@ -2437,25 +2310,25 @@
         <v>126</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>110</v>
@@ -2463,25 +2336,25 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>141</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>49</v>
@@ -2494,7 +2367,7 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="14" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>51</v>
@@ -2558,20 +2431,20 @@
     </row>
     <row r="2" spans="1:9" s="42" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>57</v>
@@ -2580,27 +2453,27 @@
         <v>57</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="42" customFormat="1">
       <c r="A3" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>57</v>
@@ -2609,27 +2482,27 @@
         <v>57</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="42" customFormat="1">
       <c r="A4" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>57</v>
@@ -2638,27 +2511,27 @@
         <v>57</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="42" customFormat="1">
       <c r="A5" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>57</v>
@@ -2667,27 +2540,27 @@
         <v>57</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="42" customFormat="1">
       <c r="A6" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>57</v>
@@ -2696,27 +2569,27 @@
         <v>57</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="42" customFormat="1">
       <c r="A7" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>57</v>
@@ -2725,27 +2598,27 @@
         <v>57</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="42" customFormat="1">
       <c r="A8" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>57</v>
@@ -2754,27 +2627,27 @@
         <v>57</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="42" customFormat="1">
       <c r="A9" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>57</v>
@@ -2783,27 +2656,27 @@
         <v>57</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="42" customFormat="1">
       <c r="A10" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>57</v>
@@ -2812,7 +2685,7 @@
         <v>57</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2823,16 +2696,16 @@
         <v>49</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>57</v>
@@ -2841,7 +2714,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2852,16 +2725,16 @@
         <v>49</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>57</v>
@@ -2870,27 +2743,27 @@
         <v>57</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>57</v>
@@ -2899,27 +2772,27 @@
         <v>57</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>57</v>
@@ -2928,27 +2801,27 @@
         <v>57</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>57</v>
@@ -2957,27 +2830,27 @@
         <v>57</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>57</v>
@@ -2986,27 +2859,27 @@
         <v>57</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>57</v>
@@ -3015,27 +2888,27 @@
         <v>57</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>57</v>
@@ -3044,27 +2917,27 @@
         <v>57</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>57</v>
@@ -3073,27 +2946,27 @@
         <v>57</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>57</v>
@@ -3102,27 +2975,27 @@
         <v>57</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>57</v>
@@ -3131,27 +3004,27 @@
         <v>57</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>57</v>
@@ -3160,27 +3033,27 @@
         <v>57</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>57</v>
@@ -3189,27 +3062,27 @@
         <v>57</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>57</v>
@@ -3218,27 +3091,27 @@
         <v>57</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B25" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>57</v>
@@ -3247,27 +3120,27 @@
         <v>57</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B26" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>57</v>
@@ -3276,27 +3149,27 @@
         <v>57</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F27" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>57</v>
@@ -3305,27 +3178,27 @@
         <v>57</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B28" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>57</v>
@@ -3334,27 +3207,27 @@
         <v>57</v>
       </c>
       <c r="I28" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B29" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F29" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>57</v>
@@ -3363,27 +3236,27 @@
         <v>57</v>
       </c>
       <c r="I29" s="56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B30" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F30" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>57</v>
@@ -3392,27 +3265,27 @@
         <v>57</v>
       </c>
       <c r="I30" s="56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B31" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>57</v>
@@ -3421,27 +3294,27 @@
         <v>57</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B32" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F32" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>57</v>
@@ -3450,27 +3323,27 @@
         <v>57</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>57</v>
@@ -3479,27 +3352,27 @@
         <v>57</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="52" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="B34" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F34" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>57</v>
@@ -3508,27 +3381,27 @@
         <v>57</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="52" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="B35" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F35" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>57</v>
@@ -3537,27 +3410,27 @@
         <v>57</v>
       </c>
       <c r="I35" s="56" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="52" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="B36" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F36" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>57</v>
@@ -3566,27 +3439,27 @@
         <v>57</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="52" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F37" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>57</v>
@@ -3595,27 +3468,27 @@
         <v>57</v>
       </c>
       <c r="I37" s="56" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="52" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="B38" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F38" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>57</v>
@@ -3624,27 +3497,27 @@
         <v>57</v>
       </c>
       <c r="I38" s="56" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="52" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="B39" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F39" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G39" s="55" t="s">
         <v>57</v>
@@ -3653,27 +3526,27 @@
         <v>57</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="52" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F40" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G40" s="55" t="s">
         <v>57</v>
@@ -3682,27 +3555,27 @@
         <v>57</v>
       </c>
       <c r="I40" s="56" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="52" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="B41" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F41" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G41" s="55" t="s">
         <v>57</v>
@@ -3711,27 +3584,27 @@
         <v>57</v>
       </c>
       <c r="I41" s="56" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="52" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="B42" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F42" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G42" s="55" t="s">
         <v>57</v>
@@ -3740,27 +3613,27 @@
         <v>57</v>
       </c>
       <c r="I42" s="56" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="52" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F43" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G43" s="55" t="s">
         <v>57</v>
@@ -3769,27 +3642,27 @@
         <v>57</v>
       </c>
       <c r="I43" s="56" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="52" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F44" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G44" s="55" t="s">
         <v>57</v>
@@ -3798,27 +3671,27 @@
         <v>57</v>
       </c>
       <c r="I44" s="56" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="52" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="B45" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F45" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G45" s="55" t="s">
         <v>57</v>
@@ -3827,27 +3700,27 @@
         <v>57</v>
       </c>
       <c r="I45" s="56" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="52" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="B46" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F46" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G46" s="55" t="s">
         <v>57</v>
@@ -3856,27 +3729,27 @@
         <v>57</v>
       </c>
       <c r="I46" s="56" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="52" t="s">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="B47" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F47" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G47" s="55" t="s">
         <v>57</v>
@@ -3885,27 +3758,27 @@
         <v>57</v>
       </c>
       <c r="I47" s="56" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="52" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F48" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G48" s="55" t="s">
         <v>57</v>
@@ -3914,27 +3787,27 @@
         <v>57</v>
       </c>
       <c r="I48" s="56" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="52" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="B49" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F49" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G49" s="55" t="s">
         <v>57</v>
@@ -3943,27 +3816,27 @@
         <v>57</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="52" t="s">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="B50" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F50" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G50" s="55" t="s">
         <v>57</v>
@@ -3972,27 +3845,27 @@
         <v>57</v>
       </c>
       <c r="I50" s="56" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="52" t="s">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="B51" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F51" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G51" s="55" t="s">
         <v>57</v>
@@ -4001,7 +3874,7 @@
         <v>57</v>
       </c>
       <c r="I51" s="56" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4015,10 +3888,10 @@
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4028,10 +3901,9 @@
     <col min="3" max="3" width="10.140625" style="35" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="9.42578125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="35"/>
+    <col min="6" max="6" width="12.28515625" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4059,7 +3931,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>59</v>
@@ -4073,1167 +3945,17 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>350</v>
+      <c r="F2" s="72" t="s">
+        <v>420</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="56" t="s">
-        <v>400</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="56" t="s">
-        <v>405</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="56" t="s">
-        <v>406</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="56" t="s">
-        <v>407</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="56" t="s">
-        <v>408</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="56" t="s">
-        <v>410</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="56" t="s">
-        <v>411</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="56" t="s">
-        <v>415</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="56" t="s">
-        <v>416</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G68" r:id="rId1" display="tester150@ACVtesting.com" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{638D72AC-9050-4DEE-8B90-1541AF37B62E}"/>
+    <hyperlink ref="G18" r:id="rId1" display="tester150@ACVtesting.com" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{3453EB86-1090-45D6-8EBF-E5993C49DB21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
@@ -5279,19 +4001,19 @@
         <v>7</v>
       </c>
       <c r="F1" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>333</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>334</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>95</v>
@@ -5302,34 +4024,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>341</v>
-      </c>
       <c r="D2" s="65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>84</v>
       </c>
       <c r="F2" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>338</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="J2" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -5337,31 +4059,31 @@
         <v>6</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="E3" s="66">
         <v>1</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="K3" s="70">
         <v>24.97</v>
@@ -5369,34 +4091,34 @@
     </row>
     <row r="4" spans="1:11" ht="60">
       <c r="A4" s="66" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="E4" s="66">
         <v>1</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="G4" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>338</v>
-      </c>
       <c r="I4" s="66" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="K4" s="70">
         <v>19.95</v>
@@ -5489,7 +4211,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5518,7 +4240,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5547,7 +4269,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5576,7 +4298,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -5627,7 +4349,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -5639,7 +4361,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>43</v>
@@ -5647,7 +4369,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -5659,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
@@ -5679,7 +4401,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>45</v>
@@ -5699,7 +4421,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -5719,7 +4441,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
@@ -5750,7 +4472,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>50</v>
@@ -5758,7 +4480,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>49</v>
@@ -5766,7 +4488,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>49</v>
@@ -5774,7 +4496,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="62" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>49</v>
@@ -5782,7 +4504,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>49</v>
@@ -5790,7 +4512,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>49</v>
@@ -5798,7 +4520,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>49</v>
@@ -5806,7 +4528,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>49</v>
@@ -5814,7 +4536,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="62" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>49</v>
@@ -5868,7 +4590,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>51</v>
@@ -5891,7 +4613,7 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>49</v>
@@ -5903,16 +4625,16 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>57</v>
@@ -5922,12 +4644,12 @@
       </c>
       <c r="K2" s="33"/>
       <c r="L2" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>49</v>
@@ -5942,13 +4664,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>57</v>
@@ -5958,12 +4680,12 @@
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A4" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>49</v>
@@ -5972,19 +4694,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>57</v>
@@ -5994,12 +4716,12 @@
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A5" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>49</v>
@@ -6015,10 +4737,10 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>57</v>
@@ -6028,12 +4750,12 @@
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60">
       <c r="A6" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>49</v>
@@ -6045,16 +4767,16 @@
         <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>57</v>
@@ -6067,7 +4789,7 @@
     </row>
     <row r="7" spans="1:12" ht="60">
       <c r="A7" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>49</v>
@@ -6079,16 +4801,16 @@
         <v>66</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>57</v>
@@ -6098,12 +4820,12 @@
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60">
       <c r="A8" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>49</v>
@@ -6118,13 +4840,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>57</v>
@@ -6134,12 +4856,12 @@
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60">
       <c r="A9" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>49</v>
@@ -6154,13 +4876,13 @@
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>57</v>
@@ -6170,12 +4892,12 @@
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60">
       <c r="A10" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>49</v>
@@ -6190,13 +4912,13 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>57</v>
@@ -6206,12 +4928,12 @@
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60">
       <c r="A11" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>49</v>
@@ -6226,13 +4948,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>57</v>
@@ -6242,12 +4964,12 @@
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60">
       <c r="A12" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>49</v>
@@ -6262,13 +4984,13 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>57</v>
@@ -6278,12 +5000,12 @@
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60">
       <c r="A13" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>49</v>
@@ -6298,13 +5020,13 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>57</v>
@@ -6317,7 +5039,7 @@
     </row>
     <row r="14" spans="1:12" ht="60">
       <c r="A14" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>49</v>
@@ -6332,13 +5054,13 @@
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>57</v>
@@ -6351,7 +5073,7 @@
     </row>
     <row r="15" spans="1:12" ht="60">
       <c r="A15" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>49</v>
@@ -6366,13 +5088,13 @@
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>57</v>
@@ -6400,13 +5122,13 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I16" s="33" t="s">
         <v>57</v>
@@ -6434,13 +5156,13 @@
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>57</v>
@@ -6468,13 +5190,13 @@
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>57</v>
@@ -6502,13 +5224,13 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>57</v>
@@ -6536,13 +5258,13 @@
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I20" s="33" t="s">
         <v>57</v>
@@ -6555,28 +5277,28 @@
     </row>
     <row r="21" spans="1:12" ht="60">
       <c r="A21" s="8" t="s">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="E21" s="8" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="33" t="s">
         <v>57</v>
@@ -6586,7 +5308,7 @@
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6602,7 +5324,7 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -6642,16 +5364,16 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" s="45" t="s">
         <v>2</v>
@@ -6661,16 +5383,16 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" s="45" t="s">
         <v>2</v>
@@ -6680,16 +5402,16 @@
     </row>
     <row r="4" spans="1:7" ht="165">
       <c r="A4" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>2</v>
@@ -6699,16 +5421,16 @@
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>2</v>
@@ -6718,16 +5440,16 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>2</v>
@@ -6737,16 +5459,16 @@
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>2</v>
@@ -6756,16 +5478,16 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>2</v>
@@ -6775,7 +5497,7 @@
     </row>
     <row r="9" spans="1:7" ht="120">
       <c r="A9" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>49</v>
@@ -6784,7 +5506,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E9" s="45" t="s">
         <v>2</v>
@@ -6794,169 +5516,169 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E14" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="120">
       <c r="A17" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G17" s="48"/>
     </row>
@@ -7015,28 +5737,28 @@
         <v>87</v>
       </c>
       <c r="H1" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>162</v>
-      </c>
       <c r="K1" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>6</v>
@@ -7044,26 +5766,26 @@
       <c r="F2" s="34"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="45">
       <c r="A3" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>164</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>165</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>6</v>
@@ -7071,26 +5793,26 @@
       <c r="F3" s="34"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="45">
       <c r="A4" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>6</v>
@@ -7098,26 +5820,26 @@
       <c r="F4" s="34"/>
       <c r="G4" s="33"/>
       <c r="H4" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11" ht="45">
       <c r="A5" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>6</v>
@@ -7125,57 +5847,57 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="71"/>
       <c r="C6" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D6" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>294</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>295</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="52" t="s">
         <v>296</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45">
       <c r="A7" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="50" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>6</v>
@@ -7185,28 +5907,28 @@
         <v>88</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
       <c r="A8" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>6</v>
@@ -7214,26 +5936,26 @@
       <c r="F8" s="34"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="45">
       <c r="A9" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>6</v>
@@ -7241,26 +5963,26 @@
       <c r="F9" s="34"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="45">
       <c r="A10" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>6</v>
@@ -7268,26 +5990,26 @@
       <c r="F10" s="34"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="45">
       <c r="A11" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>6</v>
@@ -7295,57 +6017,57 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="71"/>
       <c r="C12" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D12" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>294</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>295</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12" s="52" t="s">
         <v>296</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="K12" s="52" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
       <c r="A13" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="50" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>6</v>
@@ -7355,30 +6077,30 @@
         <v>88</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="75">
       <c r="A14" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>6</v>
@@ -7386,42 +6108,42 @@
       <c r="F14" s="34"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11" ht="75">
       <c r="A15" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K15" s="33"/>
     </row>
@@ -7462,15 +6184,15 @@
         <v>11</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="42" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>49</v>
@@ -7479,15 +6201,15 @@
         <v>93</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>49</v>
@@ -7496,27 +6218,27 @@
         <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -7530,22 +6252,24 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="36"/>
     <col min="3" max="3" width="37.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="35"/>
+    <col min="4" max="4" width="13.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="36" customFormat="1">
+    <row r="1" spans="1:7" s="36" customFormat="1">
       <c r="A1" s="23" t="s">
         <v>65</v>
       </c>
@@ -7559,12 +6283,18 @@
         <v>10</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" s="36" customFormat="1">
       <c r="A2" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>49</v>
@@ -7575,64 +6305,112 @@
       <c r="D2" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="105">
+      <c r="A5" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{D77463F8-76E2-42DF-8FB3-D0BB22F47E84}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{930B567A-F039-4C30-8351-869BDE377B4F}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{DA510F36-1C85-49B4-AD25-1B051FFD8B8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7669,7 +6447,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>9</v>
@@ -7684,13 +6462,13 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>57</v>
@@ -7707,10 +6485,10 @@
         <v>90</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>57</v>
@@ -7771,25 +6549,25 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{325A0FFF-CC53-4DA9-93FD-3F7141092212}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC41B09D-74B0-4D6E-B6E6-29188A67D928}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60105" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67560" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="429">
   <si>
     <t>Accept</t>
   </si>
@@ -410,12 +410,6 @@
     <t>ABV-2</t>
   </si>
   <si>
-    <t>AC-10</t>
-  </si>
-  <si>
-    <t>AC-11</t>
-  </si>
-  <si>
     <t>Logn with valid information</t>
   </si>
   <si>
@@ -618,30 +612,6 @@
     <t>AC-01</t>
   </si>
   <si>
-    <t>AC-02</t>
-  </si>
-  <si>
-    <t>AC-03</t>
-  </si>
-  <si>
-    <t>AC-04</t>
-  </si>
-  <si>
-    <t>AC-05</t>
-  </si>
-  <si>
-    <t>AC-06</t>
-  </si>
-  <si>
-    <t>AC-07</t>
-  </si>
-  <si>
-    <t>AC-08</t>
-  </si>
-  <si>
-    <t>AC-09</t>
-  </si>
-  <si>
     <t>COB-01</t>
   </si>
   <si>
@@ -682,42 +652,6 @@
   </si>
   <si>
     <t>COB-14</t>
-  </si>
-  <si>
-    <t>AC-13</t>
-  </si>
-  <si>
-    <t>AC-14</t>
-  </si>
-  <si>
-    <t>AC-15</t>
-  </si>
-  <si>
-    <t>AC-16</t>
-  </si>
-  <si>
-    <t>AC-17</t>
-  </si>
-  <si>
-    <t>AC-18</t>
-  </si>
-  <si>
-    <t>AC-19</t>
-  </si>
-  <si>
-    <t>AC-20</t>
-  </si>
-  <si>
-    <t>AC-21</t>
-  </si>
-  <si>
-    <t>AC-22</t>
-  </si>
-  <si>
-    <t>AC-23</t>
-  </si>
-  <si>
-    <t>AC-24</t>
   </si>
   <si>
     <t>REG-01</t>
@@ -1017,33 +951,6 @@
   </si>
   <si>
     <t>U-34</t>
-  </si>
-  <si>
-    <t>AC-25</t>
-  </si>
-  <si>
-    <t>AC-26</t>
-  </si>
-  <si>
-    <t>AC-27</t>
-  </si>
-  <si>
-    <t>AC-28</t>
-  </si>
-  <si>
-    <t>AC-29</t>
-  </si>
-  <si>
-    <t>AC-30</t>
-  </si>
-  <si>
-    <t>AC-31</t>
-  </si>
-  <si>
-    <t>AC-32</t>
-  </si>
-  <si>
-    <t>AC-33</t>
   </si>
   <si>
     <t>Browser</t>
@@ -1200,12 +1107,6 @@
     <t>U-51</t>
   </si>
   <si>
-    <t>Sorry, this does not match our records. Check your spelling and try again.</t>
-  </si>
-  <si>
-    <t>Please enter a valid email address.</t>
-  </si>
-  <si>
     <t>Please enter your email address.
 Please enter your password.</t>
   </si>
@@ -1308,60 +1209,6 @@
   </si>
   <si>
     <t>https://dev.christopherandbanks.com/refined-everyday-denim-barely-boot-leg-petite-pant-0036789778.html</t>
-  </si>
-  <si>
-    <t>AC-34</t>
-  </si>
-  <si>
-    <t>AC-35</t>
-  </si>
-  <si>
-    <t>AC-36</t>
-  </si>
-  <si>
-    <t>AC-37</t>
-  </si>
-  <si>
-    <t>AC-38</t>
-  </si>
-  <si>
-    <t>AC-39</t>
-  </si>
-  <si>
-    <t>AC-40</t>
-  </si>
-  <si>
-    <t>AC-41</t>
-  </si>
-  <si>
-    <t>AC-42</t>
-  </si>
-  <si>
-    <t>AC-43</t>
-  </si>
-  <si>
-    <t>AC-44</t>
-  </si>
-  <si>
-    <t>AC-45</t>
-  </si>
-  <si>
-    <t>AC-46</t>
-  </si>
-  <si>
-    <t>AC-47</t>
-  </si>
-  <si>
-    <t>AC-48</t>
-  </si>
-  <si>
-    <t>AC-49</t>
-  </si>
-  <si>
-    <t>AC-50</t>
-  </si>
-  <si>
-    <t>AC-51</t>
   </si>
   <si>
     <t>COB-20</t>
@@ -1395,6 +1242,177 @@
 PasswordConfValidation:Please confirm your password
 schoolValidation:Please enter your school
 AcceptTermsValidation:Please Accept the Terms &amp; Conditions to register.</t>
+  </si>
+  <si>
+    <t>tester_001@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_002@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_003@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_004@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_005@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_006@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_007@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_008@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_009@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0010@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0011@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0012@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0013@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0014@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0015@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0016@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0017@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0018@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0019@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0020@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0021@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0022@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0024@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0025@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0026@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0027@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0028@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0029@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0030@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0031@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0032@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0033@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0034@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0035@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0036@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0037@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0038@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0039@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0040@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0041@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0042@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0043@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0044@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0045@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0046@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0047@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0048@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_0049@ocm.com</t>
+  </si>
+  <si>
+    <t>tester_010@ocm.com</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Forgot password -Valid Email</t>
+  </si>
+  <si>
+    <t>Forgot password -Invalid Email</t>
+  </si>
+  <si>
+    <t>LGN-6</t>
+  </si>
+  <si>
+    <t>LGN-7</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address</t>
+  </si>
+  <si>
+    <t>Your username or password was incorrect.</t>
+  </si>
+  <si>
+    <t>Success!</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1662,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1847,6 +1865,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2207,7 +2226,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="57" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>50</v>
@@ -2215,13 +2234,13 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="58" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="B2" s="59"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>49</v>
@@ -2229,7 +2248,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>49</v>
@@ -2246,17 +2265,17 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="36"/>
     <col min="3" max="3" width="33.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="35"/>
@@ -2284,79 +2303,87 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="20"/>
+        <v>139</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C2" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="20"/>
+        <v>140</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>366</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="20"/>
+        <v>141</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C4" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="20"/>
+        <v>142</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C5" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -2367,7 +2394,47 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="14" t="s">
-        <v>367</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2451,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2411,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>51</v>
@@ -2431,20 +2498,22 @@
     </row>
     <row r="2" spans="1:9" s="42" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="52"/>
+        <v>183</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>49</v>
+      </c>
       <c r="C2" s="53" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>57</v>
@@ -2453,1429 +2522,547 @@
         <v>57</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="42" customFormat="1">
-      <c r="A3" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>225</v>
-      </c>
+      <c r="A3" s="20"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" s="42" customFormat="1">
-      <c r="A4" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>226</v>
-      </c>
+      <c r="A4" s="20"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" s="42" customFormat="1">
-      <c r="A5" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>227</v>
-      </c>
+      <c r="A5" s="20"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" s="42" customFormat="1">
-      <c r="A6" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>228</v>
-      </c>
+      <c r="A6" s="20"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" s="42" customFormat="1">
-      <c r="A7" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>229</v>
-      </c>
+      <c r="A7" s="20"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" s="42" customFormat="1">
-      <c r="A8" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>230</v>
-      </c>
+      <c r="A8" s="20"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" s="42" customFormat="1">
-      <c r="A9" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>231</v>
-      </c>
+      <c r="A9" s="20"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" s="42" customFormat="1">
-      <c r="A10" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>232</v>
-      </c>
+      <c r="A10" s="20"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>233</v>
-      </c>
+      <c r="A11" s="20"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>234</v>
-      </c>
+      <c r="A12" s="20"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>235</v>
-      </c>
+      <c r="A13" s="20"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>236</v>
-      </c>
+      <c r="A14" s="20"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>237</v>
-      </c>
+      <c r="A15" s="20"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>238</v>
-      </c>
+      <c r="A16" s="20"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>239</v>
-      </c>
+      <c r="A17" s="20"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>240</v>
-      </c>
+      <c r="A18" s="20"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>241</v>
-      </c>
+      <c r="A19" s="20"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>242</v>
-      </c>
+      <c r="A20" s="20"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>243</v>
-      </c>
+      <c r="A21" s="20"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>244</v>
-      </c>
+      <c r="A22" s="20"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>245</v>
-      </c>
+      <c r="A23" s="20"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>246</v>
-      </c>
+      <c r="A24" s="20"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>247</v>
-      </c>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G26" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>299</v>
-      </c>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>300</v>
-      </c>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F28" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="56" t="s">
-        <v>301</v>
-      </c>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G29" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="56" t="s">
-        <v>302</v>
-      </c>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G30" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>303</v>
-      </c>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G31" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="56" t="s">
-        <v>304</v>
-      </c>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="56" t="s">
-        <v>305</v>
-      </c>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F33" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="56" t="s">
-        <v>306</v>
-      </c>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="52" t="s">
-        <v>396</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F34" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" s="56" t="s">
-        <v>307</v>
-      </c>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="52" t="s">
-        <v>397</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F35" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G35" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="56" t="s">
-        <v>348</v>
-      </c>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F36" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G36" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I36" s="56" t="s">
-        <v>349</v>
-      </c>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="52" t="s">
-        <v>399</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G37" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" s="56" t="s">
-        <v>350</v>
-      </c>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G38" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I38" s="56" t="s">
-        <v>351</v>
-      </c>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="52" t="s">
-        <v>401</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G39" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="56" t="s">
-        <v>352</v>
-      </c>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="52" t="s">
-        <v>402</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G40" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" s="56" t="s">
-        <v>353</v>
-      </c>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="56" t="s">
-        <v>354</v>
-      </c>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="56"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="52" t="s">
-        <v>404</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F42" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G42" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" s="56" t="s">
-        <v>355</v>
-      </c>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="56"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="52" t="s">
-        <v>405</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F43" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G43" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="56" t="s">
-        <v>356</v>
-      </c>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="56"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="52" t="s">
-        <v>406</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F44" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G44" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="56" t="s">
-        <v>357</v>
-      </c>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="56"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F45" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G45" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="56" t="s">
-        <v>358</v>
-      </c>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="56"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="52" t="s">
-        <v>408</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F46" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G46" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" s="56" t="s">
-        <v>359</v>
-      </c>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="56"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F47" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G47" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="56" t="s">
-        <v>360</v>
-      </c>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="56"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="52" t="s">
-        <v>410</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F48" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G48" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I48" s="56" t="s">
-        <v>361</v>
-      </c>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="56"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="52" t="s">
-        <v>411</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F49" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G49" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="56" t="s">
-        <v>362</v>
-      </c>
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="56"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="52" t="s">
-        <v>412</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G50" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="56" t="s">
-        <v>363</v>
-      </c>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="56"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="52" t="s">
-        <v>413</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G51" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I51" s="56" t="s">
-        <v>364</v>
-      </c>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3888,10 +3075,10 @@
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3902,7 +3089,7 @@
     <col min="4" max="4" width="9.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="9.42578125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12.28515625" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.5703125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
@@ -3931,7 +3118,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>59</v>
@@ -3946,19 +3133,1219 @@
         <v>1</v>
       </c>
       <c r="F2" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" s="74" t="s">
         <v>420</v>
       </c>
-      <c r="G2" s="64" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>419</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G18" r:id="rId1" display="tester150@ACVtesting.com" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{3453EB86-1090-45D6-8EBF-E5993C49DB21}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{3453EB86-1090-45D6-8EBF-E5993C49DB21}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{28B45184-660F-49DE-AFA4-98B48FC497AE}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{111DB889-23C0-4F33-BF17-3E2A3B9FAE89}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{5F2A05CE-AF03-4833-8622-FE5791753728}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{2D76B963-E5C4-4BF5-906B-5544230C16B0}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{068C8194-CCC9-4736-9F6C-22BA45DD494F}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{046B40CF-5E23-4F65-88D9-C6AEFF10B893}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{49A24B89-9D9D-4943-B32A-DBCDD589CAC6}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{A95233FA-83F8-4606-9522-B4E01C77E318}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{AAA729D6-124E-464A-8061-715D64452C9F}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{CD1642E8-19DC-42AD-A87A-EEBE9979F742}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{70EA4D8A-1246-460F-B3A3-1381D20466CD}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{371AB7C3-8D95-464D-99F8-7B84B46045B1}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{A736C7EF-CF58-4F78-8B15-47D48044A8CE}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{1FD60B84-1686-401F-9D80-AF3119C2D471}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{AFEF40CD-1FBC-4770-8BD2-252D4B9BBDA8}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{96ED99FA-586F-400F-9F8E-63ED305A3710}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{E0827E8E-2EF2-4284-9D9B-CA484C979905}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{BBE6719B-1088-4070-B77F-D892FA5A8F83}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{7847214F-BBB8-474B-BD61-4E22577120E4}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{7B5AA0F4-60A6-4EE0-8259-46B8BFC83BDB}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{5C410A13-5F23-4435-86E7-F97835C0DB6E}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{1114B9A2-E146-4949-8405-4B89249B48EA}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{1871E943-1487-42AB-91D5-7E581EE1715B}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{C692BA25-9875-43EC-8512-9C39916D020E}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{E555F3DA-B925-4879-89C1-38794B00BDBB}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{C11C96F2-2726-4088-8072-588DB7706981}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{D061350D-07D6-4661-BC0F-5E34F3C2AF9F}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{13A82160-2DB6-42B4-B0DF-0513CDFAF58F}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{D5ADDDCC-FBF6-486D-8BE8-E9D84415810C}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{ADDBF442-7028-409A-A2E2-1693F4FEFEA9}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{8585074D-0358-41E2-93DF-100F85D940CB}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{77834A97-95DB-4837-84C2-CFEA35AAF9FE}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{8C8CFDD9-A0B7-4DCF-BDC9-C540216894AE}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{23B50485-C51E-4FE3-B89F-74F558E7E850}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{9581A88B-C5B4-453A-96BE-AD0F988E4B10}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{8C57315B-26AD-4B4C-9E49-DF0A827AED42}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{4E7A03F8-E543-4E05-ABA1-B51D0622583A}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{E6544CD2-84AE-4C2A-B102-D0066E4B3B59}"/>
+    <hyperlink ref="F41" r:id="rId40" xr:uid="{EDA470A2-5349-4404-84AE-EBEA58E8437B}"/>
+    <hyperlink ref="F42" r:id="rId41" xr:uid="{FD8504A4-B815-47A6-A234-2FFC39FE03AD}"/>
+    <hyperlink ref="F43" r:id="rId42" xr:uid="{0F9B9761-E633-44EA-801E-B17477A204C8}"/>
+    <hyperlink ref="F44" r:id="rId43" xr:uid="{1281BD09-69CD-4902-A33F-20CFB6C6A441}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{E831DB43-9304-44C7-8F76-98317485C631}"/>
+    <hyperlink ref="F46" r:id="rId45" xr:uid="{71610721-4943-4E65-8626-7F2A734A0DA1}"/>
+    <hyperlink ref="F47" r:id="rId46" xr:uid="{9D162743-3D7F-4730-B72E-1C91014632BE}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{5B0EADA2-756C-4E3B-920B-8013D7FCF369}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{AD5D5B70-28E9-4E2E-BB45-F920F9D24A87}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{286141F2-B2BA-4ED7-A822-6190603869DB}"/>
+    <hyperlink ref="F51" r:id="rId50" xr:uid="{9644146D-2ED3-416E-8212-3897AF06AEC6}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{838AC9B9-415F-4EBD-AB0D-F0998D1F2B03}"/>
+    <hyperlink ref="G3" r:id="rId52" xr:uid="{9BC5A6CC-CCE0-4790-AEC1-33CBD6EF2F59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -4001,19 +4388,19 @@
         <v>7</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>95</v>
@@ -4024,34 +4411,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>84</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -4059,31 +4446,31 @@
         <v>6</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="E3" s="66">
         <v>1</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="K3" s="70">
         <v>24.97</v>
@@ -4091,34 +4478,34 @@
     </row>
     <row r="4" spans="1:11" ht="60">
       <c r="A4" s="66" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="E4" s="66">
         <v>1</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="I4" s="66" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="K4" s="70">
         <v>19.95</v>
@@ -4211,7 +4598,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4240,7 +4627,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4269,7 +4656,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4298,7 +4685,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +4736,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -4361,7 +4748,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>43</v>
@@ -4369,7 +4756,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -4381,7 +4768,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
@@ -4401,7 +4788,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>45</v>
@@ -4421,7 +4808,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -4441,7 +4828,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
@@ -4472,7 +4859,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>50</v>
@@ -4480,7 +4867,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="61" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>49</v>
@@ -4488,7 +4875,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="62" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>49</v>
@@ -4496,7 +4883,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="62" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>49</v>
@@ -4504,7 +4891,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="62" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>49</v>
@@ -4512,7 +4899,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="62" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>49</v>
@@ -4520,7 +4907,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="62" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>49</v>
@@ -4528,7 +4915,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="62" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>49</v>
@@ -4536,7 +4923,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="62" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>49</v>
@@ -4590,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>51</v>
@@ -4613,7 +5000,7 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>49</v>
@@ -4625,16 +5012,16 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>57</v>
@@ -4644,12 +5031,12 @@
       </c>
       <c r="K2" s="33"/>
       <c r="L2" s="33" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>49</v>
@@ -4664,13 +5051,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>57</v>
@@ -4680,12 +5067,12 @@
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A4" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>49</v>
@@ -4694,19 +5081,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>57</v>
@@ -4716,12 +5103,12 @@
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A5" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>49</v>
@@ -4737,10 +5124,10 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>57</v>
@@ -4750,12 +5137,12 @@
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60">
       <c r="A6" s="8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>49</v>
@@ -4767,16 +5154,16 @@
         <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>57</v>
@@ -4789,7 +5176,7 @@
     </row>
     <row r="7" spans="1:12" ht="60">
       <c r="A7" s="8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>49</v>
@@ -4801,16 +5188,16 @@
         <v>66</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>57</v>
@@ -4820,12 +5207,12 @@
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="34" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60">
       <c r="A8" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>49</v>
@@ -4840,13 +5227,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>57</v>
@@ -4856,12 +5243,12 @@
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="33" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60">
       <c r="A9" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>49</v>
@@ -4876,13 +5263,13 @@
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>57</v>
@@ -4892,12 +5279,12 @@
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="33" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60">
       <c r="A10" s="8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>49</v>
@@ -4912,13 +5299,13 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>57</v>
@@ -4928,12 +5315,12 @@
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60">
       <c r="A11" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>49</v>
@@ -4948,13 +5335,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>57</v>
@@ -4964,12 +5351,12 @@
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60">
       <c r="A12" s="8" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>49</v>
@@ -4984,13 +5371,13 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>57</v>
@@ -5000,12 +5387,12 @@
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60">
       <c r="A13" s="8" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>49</v>
@@ -5020,13 +5407,13 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>57</v>
@@ -5039,7 +5426,7 @@
     </row>
     <row r="14" spans="1:12" ht="60">
       <c r="A14" s="8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>49</v>
@@ -5054,13 +5441,13 @@
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>57</v>
@@ -5073,7 +5460,7 @@
     </row>
     <row r="15" spans="1:12" ht="60">
       <c r="A15" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>49</v>
@@ -5088,13 +5475,13 @@
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>57</v>
@@ -5122,13 +5509,13 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I16" s="33" t="s">
         <v>57</v>
@@ -5156,13 +5543,13 @@
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>57</v>
@@ -5190,13 +5577,13 @@
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>57</v>
@@ -5224,13 +5611,13 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>57</v>
@@ -5258,13 +5645,13 @@
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="I20" s="33" t="s">
         <v>57</v>
@@ -5277,28 +5664,28 @@
     </row>
     <row r="21" spans="1:12" ht="60">
       <c r="A21" s="8" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="I21" s="33" t="s">
         <v>57</v>
@@ -5308,7 +5695,7 @@
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="33" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5364,16 +5751,16 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="E2" s="45" t="s">
         <v>2</v>
@@ -5383,16 +5770,16 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="E3" s="45" t="s">
         <v>2</v>
@@ -5402,16 +5789,16 @@
     </row>
     <row r="4" spans="1:7" ht="165">
       <c r="A4" s="8" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>2</v>
@@ -5421,16 +5808,16 @@
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>2</v>
@@ -5440,16 +5827,16 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>2</v>
@@ -5459,16 +5846,16 @@
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>2</v>
@@ -5478,16 +5865,16 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>2</v>
@@ -5497,7 +5884,7 @@
     </row>
     <row r="9" spans="1:7" ht="120">
       <c r="A9" s="8" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>49</v>
@@ -5506,7 +5893,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E9" s="45" t="s">
         <v>2</v>
@@ -5516,169 +5903,169 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="8" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="E14" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="8" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="120">
       <c r="A17" s="8" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G17" s="48"/>
     </row>
@@ -5737,28 +6124,28 @@
         <v>87</v>
       </c>
       <c r="H1" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>162</v>
-      </c>
       <c r="J1" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" s="50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>6</v>
@@ -5766,26 +6153,26 @@
       <c r="F2" s="34"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="45">
       <c r="A3" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>6</v>
@@ -5793,26 +6180,26 @@
       <c r="F3" s="34"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="45">
       <c r="A4" s="50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>163</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>165</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>6</v>
@@ -5820,26 +6207,26 @@
       <c r="F4" s="34"/>
       <c r="G4" s="33"/>
       <c r="H4" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11" ht="45">
       <c r="A5" s="50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="20" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>6</v>
@@ -5847,57 +6234,57 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" s="71"/>
       <c r="C6" s="52" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="52" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45">
       <c r="A7" s="50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="50" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>6</v>
@@ -5907,28 +6294,28 @@
         <v>88</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
       <c r="A8" s="50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>6</v>
@@ -5936,26 +6323,26 @@
       <c r="F8" s="34"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="45">
       <c r="A9" s="50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>6</v>
@@ -5963,26 +6350,26 @@
       <c r="F9" s="34"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="45">
       <c r="A10" s="50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>6</v>
@@ -5990,26 +6377,26 @@
       <c r="F10" s="34"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="45">
       <c r="A11" s="50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="20" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>6</v>
@@ -6017,57 +6404,57 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="71"/>
       <c r="C12" s="52" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="52" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K12" s="52" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
       <c r="A13" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="50" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>6</v>
@@ -6077,30 +6464,30 @@
         <v>88</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="75">
       <c r="A14" s="50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>6</v>
@@ -6108,42 +6495,42 @@
       <c r="F14" s="34"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11" ht="75">
       <c r="A15" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K15" s="33"/>
     </row>
@@ -6184,15 +6571,15 @@
         <v>11</v>
       </c>
       <c r="D1" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="42" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>49</v>
@@ -6201,15 +6588,15 @@
         <v>93</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>49</v>
@@ -6218,27 +6605,27 @@
         <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -6254,7 +6641,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6283,7 +6670,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>63</v>
@@ -6294,7 +6681,7 @@
     </row>
     <row r="2" spans="1:7" s="36" customFormat="1">
       <c r="A2" s="33" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>49</v>
@@ -6306,18 +6693,18 @@
         <v>100</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="33" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>49</v>
@@ -6329,18 +6716,18 @@
         <v>100</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="33" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>49</v>
@@ -6352,39 +6739,39 @@
         <v>102</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="105">
       <c r="A5" s="33" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>104</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="27" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="33" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>49</v>
@@ -6396,11 +6783,11 @@
         <v>106</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6447,7 +6834,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>9</v>
@@ -6462,13 +6849,13 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>57</v>
@@ -6485,10 +6872,10 @@
         <v>90</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>57</v>
@@ -6549,25 +6936,25 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC41B09D-74B0-4D6E-B6E6-29188A67D928}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C9D800D-22E5-4D72-8AE8-6F33346BB7D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67560" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75000" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="445">
   <si>
     <t>Accept</t>
   </si>
@@ -992,61 +992,6 @@
     <t>cartRegression</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>sizeFamily</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>https://dev.christopherandbanks.com/easy-wear-tunic-tank-015016110007045.html</t>
-  </si>
-  <si>
-    <t>0240-BLACK</t>
-  </si>
-  <si>
-    <t>MISSY</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>$29.95</t>
-  </si>
-  <si>
-    <t>015016110007045</t>
-  </si>
-  <si>
-    <t>Easy Wear Tunic Tank</t>
-  </si>
-  <si>
-    <t>A perfect base layering piece, this silky-smooth tank features a versatile solid look and a flattering longer-length cut.</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest
-price
-id
-title
-color
-add to cart button
-info
-size
-sizeFamily
-length
-</t>
-  </si>
-  <si>
-    <t>Sleeveless</t>
-  </si>
-  <si>
     <t>4725836952</t>
   </si>
   <si>
@@ -1112,27 +1057,6 @@
   </si>
   <si>
     <t>$24.97</t>
-  </si>
-  <si>
-    <t>0126-WHITE</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>3/4 Sleeve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart and stylish, this solid shirt features a classic cut with a button-front placket and a traditional collar. Knit side panels trim the silhouette while offering a flattering, comfortable fit. </t>
-  </si>
-  <si>
-    <t>https://dev.christopherandbanks.com/pleated-knit-to-fit-shirt-0036801530.html</t>
-  </si>
-  <si>
-    <t>Pleated Knit to Fit Shirt</t>
-  </si>
-  <si>
-    <t>030030520009544</t>
   </si>
   <si>
     <t>Guest
@@ -1190,25 +1114,10 @@
     <t>P3</t>
   </si>
   <si>
-    <t xml:space="preserve">Simple and stylish, this polka-dotted tee is sure to become a casual favorite. It's crafted using soft, lightly ribbed fabric and detailed with shimmery satin trim at the neckline. </t>
-  </si>
-  <si>
-    <t>0403-NAVY</t>
-  </si>
-  <si>
-    <t>3/4 Sleeve Satin Trim Dot Print Essential Tee</t>
-  </si>
-  <si>
-    <t>10011530001753</t>
-  </si>
-  <si>
     <t>loggedin
 new-user
 new-shipping
 new-payment</t>
-  </si>
-  <si>
-    <t>https://dev.christopherandbanks.com/refined-everyday-denim-barely-boot-leg-petite-pant-0036789778.html</t>
   </si>
   <si>
     <t>COB-20</t>
@@ -1414,14 +1323,159 @@
   <si>
     <t>Success!</t>
   </si>
+  <si>
+    <t>ds_hds_fs10062</t>
+  </si>
+  <si>
+    <t>Clear Flatware Set with Caddy</t>
+  </si>
+  <si>
+    <t>/OCM/dorm-essentials/housewares-and-appliances/kitchen-basics/clear-flatware-set-with-caddy/p/ds_hds_fs10062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$12.95 </t>
+  </si>
+  <si>
+    <t>bundleProducts</t>
+  </si>
+  <si>
+    <t>Guest
+bundle</t>
+  </si>
+  <si>
+    <t>pkg_vars</t>
+  </si>
+  <si>
+    <t>Varsity Collection - Twin XL Bedding and Bath Set</t>
+  </si>
+  <si>
+    <t>/OCM/p/v2c_bhmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroccan Blue Twin XL Comforter0: Laundry Bag0: Underbed Bag-Light Gray0: Underbed Bag-Light Gray0: Moroccan Microfiber Twin XL 3-Pc. Sheet Set0: Aqua Microfiber Twin XL 3-Pc. Sheet Set0: 2 Pillow Set0: College Classic Extra Long Twin Mattress Pad0: Bedside Storage Caddy0: Extra Long Micro Plush Blanket0: Flexible Neck Easy Clip College Lamp0: Easy Clip College Comfort Fan0: White Six-Piece Cotton Towel Set0: 100% Cotton Oversized Bath Sheet in White0: 100% Cotton Oversized Bath Sheet in White0: </t>
+  </si>
+  <si>
+    <t>PDP-17</t>
+  </si>
+  <si>
+    <t>PDP-18</t>
+  </si>
+  <si>
+    <t>Guest
+reviews</t>
+  </si>
+  <si>
+    <t>Guest
+ratings</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>fleece</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>Black College Classic Micro Fleece Throw</t>
+  </si>
+  <si>
+    <t>Guest
+color</t>
+  </si>
+  <si>
+    <t>Cameron Burgundy Varsity Standard</t>
+  </si>
+  <si>
+    <t>Guest
+fleece</t>
+  </si>
+  <si>
+    <t>Guest
+memory</t>
+  </si>
+  <si>
+    <t>2.5 Gel Foam Upgrade</t>
+  </si>
+  <si>
+    <t>/OCM/bedding/full--full-xl--queen--and-king-bedding/luxurious-tie-dye-duvet-cover-set/p/ds_thd_yds_nav_fqn</t>
+  </si>
+  <si>
+    <t>DS_THD_YDS_NAV_FQN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxurious Tie Dye Duvet Cover Set
+</t>
+  </si>
+  <si>
+    <t>$204.95</t>
+  </si>
+  <si>
+    <t>Guest
+size</t>
+  </si>
+  <si>
+    <t>PDP-19</t>
+  </si>
+  <si>
+    <t>PDP-20</t>
+  </si>
+  <si>
+    <t>PDP-21</t>
+  </si>
+  <si>
+    <t>PDP-22</t>
+  </si>
+  <si>
+    <t>PDP-23</t>
+  </si>
+  <si>
+    <t>King/California King</t>
+  </si>
+  <si>
+    <t>Guest, verify the PDP basics</t>
+  </si>
+  <si>
+    <t>Guest
+price
+id
+title
+add to cart button
+desc
+social
+ratings
+color
+fleece
+memory
+reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest, verify the PDP bundle </t>
+  </si>
+  <si>
+    <t>Guest, verify the PDP basics size</t>
+  </si>
+  <si>
+    <t>Simple flatware that will make any kitchen look nice with this 20 piece set.</t>
+  </si>
+  <si>
+    <t>Step up to the plate with RHL's comprehensive 27-piece Varsity Collection Bedding and Bath Pak! This comprehensive collection has everything you need to make move-in day a breeze.</t>
+  </si>
+  <si>
+    <t>A new take on the popular tie-dye design, the Tie-Dyed Duvet Cover Set features bold classic color to brighten any space.</t>
+  </si>
+  <si>
+    <t>$299.00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1488,7 +1542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1614,19 +1668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1662,7 +1703,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1730,9 +1771,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1832,30 +1870,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1866,6 +1883,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2225,24 +2263,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2250,7 +2288,7 @@
       <c r="A4" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2267,21 +2305,21 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="36"/>
-    <col min="3" max="3" width="33.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="2" width="9.140625" style="35"/>
+    <col min="3" max="3" width="33.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="36" customFormat="1">
+    <row r="1" spans="1:6" s="35" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
@@ -2311,13 +2349,13 @@
       <c r="C2" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
@@ -2329,14 +2367,14 @@
       <c r="C3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>226</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2349,7 +2387,7 @@
       <c r="C4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>107</v>
       </c>
       <c r="E4" s="16" t="s">
@@ -2369,14 +2407,14 @@
       <c r="C5" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>138</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -2386,55 +2424,55 @@
       <c r="B6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="14" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="17" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>202</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="17" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>226</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -2456,18 +2494,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="35"/>
-    <col min="3" max="3" width="9.5703125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="2" width="9.140625" style="34"/>
+    <col min="3" max="3" width="9.5703125" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="39" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>65</v>
       </c>
@@ -2478,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>51</v>
@@ -2496,21 +2534,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="42" customFormat="1">
+    <row r="2" spans="1:9" s="41" customFormat="1">
       <c r="A2" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>356</v>
+      <c r="C2" s="52" t="s">
+        <v>334</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>269</v>
@@ -2525,10 +2563,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="42" customFormat="1">
+    <row r="3" spans="1:9" s="41" customFormat="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="22"/>
@@ -2536,10 +2574,10 @@
       <c r="H3" s="4"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" s="42" customFormat="1">
+    <row r="4" spans="1:9" s="41" customFormat="1">
       <c r="A4" s="20"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="22"/>
@@ -2547,10 +2585,10 @@
       <c r="H4" s="4"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" s="42" customFormat="1">
+    <row r="5" spans="1:9" s="41" customFormat="1">
       <c r="A5" s="20"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="22"/>
@@ -2558,10 +2596,10 @@
       <c r="H5" s="4"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" s="42" customFormat="1">
+    <row r="6" spans="1:9" s="41" customFormat="1">
       <c r="A6" s="20"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="22"/>
@@ -2569,10 +2607,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" s="42" customFormat="1">
+    <row r="7" spans="1:9" s="41" customFormat="1">
       <c r="A7" s="20"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="22"/>
@@ -2580,10 +2618,10 @@
       <c r="H7" s="4"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" s="42" customFormat="1">
+    <row r="8" spans="1:9" s="41" customFormat="1">
       <c r="A8" s="20"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="22"/>
@@ -2591,10 +2629,10 @@
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" s="42" customFormat="1">
+    <row r="9" spans="1:9" s="41" customFormat="1">
       <c r="A9" s="20"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="22"/>
@@ -2602,10 +2640,10 @@
       <c r="H9" s="4"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" s="42" customFormat="1">
+    <row r="10" spans="1:9" s="41" customFormat="1">
       <c r="A10" s="20"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="22"/>
@@ -2615,8 +2653,8 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="20"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="22"/>
@@ -2626,8 +2664,8 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="20"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="22"/>
@@ -2637,8 +2675,8 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="20"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="22"/>
@@ -2648,8 +2686,8 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="20"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="22"/>
@@ -2659,8 +2697,8 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="20"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="22"/>
@@ -2670,8 +2708,8 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="20"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="22"/>
@@ -2681,8 +2719,8 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="20"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="22"/>
@@ -2692,8 +2730,8 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="20"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="22"/>
@@ -2703,8 +2741,8 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="20"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="22"/>
@@ -2714,8 +2752,8 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="20"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="22"/>
@@ -2725,8 +2763,8 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="20"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="22"/>
@@ -2736,8 +2774,8 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="20"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="22"/>
@@ -2747,8 +2785,8 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="20"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="22"/>
@@ -2758,8 +2796,8 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="20"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="22"/>
@@ -2768,301 +2806,301 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
       <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="56"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="56"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="56"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="56"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="55"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="53"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="56"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="56"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="55"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="53"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="56"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="55"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="56"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="55"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="56"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="55"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="56"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="55"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="56"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="55"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="56"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="56"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="55"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="56"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3078,19 +3116,19 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85546875" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.5703125" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="6" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.85546875" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.5703125" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3132,11 +3170,11 @@
       <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>368</v>
+      <c r="F2" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3155,11 +3193,11 @@
       <c r="E3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>420</v>
+      <c r="F3" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3178,11 +3216,11 @@
       <c r="E4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="72" t="s">
-        <v>369</v>
+      <c r="F4" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3201,11 +3239,11 @@
       <c r="E5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="72" t="s">
-        <v>369</v>
+      <c r="F5" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3224,11 +3262,11 @@
       <c r="E6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="72" t="s">
-        <v>369</v>
+      <c r="F6" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3247,11 +3285,11 @@
       <c r="E7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="72" t="s">
-        <v>369</v>
+      <c r="F7" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3270,11 +3308,11 @@
       <c r="E8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="72" t="s">
-        <v>369</v>
+      <c r="F8" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3293,11 +3331,11 @@
       <c r="E9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="72" t="s">
-        <v>369</v>
+      <c r="F9" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3316,11 +3354,11 @@
       <c r="E10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="72" t="s">
-        <v>369</v>
+      <c r="F10" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3339,11 +3377,11 @@
       <c r="E11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="72" t="s">
-        <v>369</v>
+      <c r="F11" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3362,11 +3400,11 @@
       <c r="E12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="72" t="s">
-        <v>369</v>
+      <c r="F12" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3385,11 +3423,11 @@
       <c r="E13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="72" t="s">
-        <v>369</v>
+      <c r="F13" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3408,11 +3446,11 @@
       <c r="E14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="72" t="s">
-        <v>369</v>
+      <c r="F14" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3431,11 +3469,11 @@
       <c r="E15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="72" t="s">
-        <v>369</v>
+      <c r="F15" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3454,11 +3492,11 @@
       <c r="E16" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="72" t="s">
-        <v>369</v>
+      <c r="F16" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3477,11 +3515,11 @@
       <c r="E17" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="72" t="s">
-        <v>369</v>
+      <c r="F17" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3500,11 +3538,11 @@
       <c r="E18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="72" t="s">
-        <v>369</v>
+      <c r="F18" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3523,11 +3561,11 @@
       <c r="E19" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="72" t="s">
-        <v>369</v>
+      <c r="F19" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3546,11 +3584,11 @@
       <c r="E20" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="72" t="s">
-        <v>369</v>
+      <c r="F20" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3569,11 +3607,11 @@
       <c r="E21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="72" t="s">
-        <v>369</v>
+      <c r="F21" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3592,11 +3630,11 @@
       <c r="E22" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="72" t="s">
-        <v>369</v>
+      <c r="F22" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3615,11 +3653,11 @@
       <c r="E23" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="72" t="s">
-        <v>369</v>
+      <c r="F23" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3638,11 +3676,11 @@
       <c r="E24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="72" t="s">
-        <v>369</v>
+      <c r="F24" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3661,11 +3699,11 @@
       <c r="E25" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="72" t="s">
-        <v>369</v>
+      <c r="F25" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3684,11 +3722,11 @@
       <c r="E26" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="72" t="s">
-        <v>369</v>
+      <c r="F26" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3707,11 +3745,11 @@
       <c r="E27" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="72" t="s">
-        <v>369</v>
+      <c r="F27" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3730,11 +3768,11 @@
       <c r="E28" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="72" t="s">
-        <v>369</v>
+      <c r="F28" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3753,11 +3791,11 @@
       <c r="E29" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="72" t="s">
+      <c r="F29" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3776,11 +3814,11 @@
       <c r="E30" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="72" t="s">
-        <v>369</v>
+      <c r="F30" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3799,11 +3837,11 @@
       <c r="E31" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="72" t="s">
-        <v>369</v>
+      <c r="F31" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3822,11 +3860,11 @@
       <c r="E32" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="72" t="s">
-        <v>369</v>
+      <c r="F32" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3845,11 +3883,11 @@
       <c r="E33" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="72" t="s">
-        <v>369</v>
+      <c r="F33" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3868,11 +3906,11 @@
       <c r="E34" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="72" t="s">
-        <v>369</v>
+      <c r="F34" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3891,16 +3929,16 @@
       <c r="E35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="72" t="s">
-        <v>369</v>
+      <c r="F35" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="16" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>59</v>
@@ -3914,16 +3952,16 @@
       <c r="E36" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="72" t="s">
-        <v>369</v>
+      <c r="F36" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="16" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>59</v>
@@ -3937,16 +3975,16 @@
       <c r="E37" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="72" t="s">
-        <v>369</v>
+      <c r="F37" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>59</v>
@@ -3960,16 +3998,16 @@
       <c r="E38" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="72" t="s">
-        <v>369</v>
+      <c r="F38" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="16" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>59</v>
@@ -3983,16 +4021,16 @@
       <c r="E39" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="72" t="s">
-        <v>369</v>
+      <c r="F39" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>59</v>
@@ -4006,16 +4044,16 @@
       <c r="E40" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="72" t="s">
-        <v>369</v>
+      <c r="F40" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>59</v>
@@ -4029,16 +4067,16 @@
       <c r="E41" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="72" t="s">
-        <v>369</v>
+      <c r="F41" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="16" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>59</v>
@@ -4052,16 +4090,16 @@
       <c r="E42" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F42" s="72" t="s">
-        <v>369</v>
+      <c r="F42" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>59</v>
@@ -4075,16 +4113,16 @@
       <c r="E43" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="72" t="s">
-        <v>369</v>
+      <c r="F43" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>59</v>
@@ -4098,16 +4136,16 @@
       <c r="E44" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="72" t="s">
-        <v>369</v>
+      <c r="F44" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>59</v>
@@ -4121,16 +4159,16 @@
       <c r="E45" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F45" s="72" t="s">
-        <v>369</v>
+      <c r="F45" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="16" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>59</v>
@@ -4144,16 +4182,16 @@
       <c r="E46" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="72" t="s">
-        <v>369</v>
+      <c r="F46" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="16" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>59</v>
@@ -4167,16 +4205,16 @@
       <c r="E47" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="72" t="s">
-        <v>369</v>
+      <c r="F47" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>59</v>
@@ -4190,16 +4228,16 @@
       <c r="E48" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F48" s="72" t="s">
-        <v>369</v>
+      <c r="F48" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>59</v>
@@ -4213,16 +4251,16 @@
       <c r="E49" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="72" t="s">
-        <v>369</v>
+      <c r="F49" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>59</v>
@@ -4236,16 +4274,16 @@
       <c r="E50" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F50" s="72" t="s">
-        <v>369</v>
+      <c r="F50" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="16" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>59</v>
@@ -4259,16 +4297,16 @@
       <c r="E51" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="72" t="s">
-        <v>369</v>
+      <c r="F51" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="16" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>59</v>
@@ -4282,11 +4320,11 @@
       <c r="E52" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="72" t="s">
-        <v>369</v>
+      <c r="F52" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4354,166 +4392,159 @@
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="43.5703125" customWidth="1"/>
+    <col min="11" max="11" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="25" t="s">
+      <c r="F1" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:12" ht="60">
+      <c r="A2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="J2" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="60">
-      <c r="A3" s="66" t="s">
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="70" t="s">
+        <v>441</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="180">
+      <c r="A3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>341</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>340</v>
-      </c>
-      <c r="E3" s="66">
+      <c r="B3" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="71">
         <v>1</v>
       </c>
-      <c r="F3" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="K3" s="70">
-        <v>24.97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="60">
-      <c r="A4" s="66" t="s">
-        <v>356</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>362</v>
-      </c>
-      <c r="E4" s="66">
+      <c r="F3" s="72" t="s">
+        <v>422</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>420</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>425</v>
+      </c>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="L3" s="68" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60">
+      <c r="A4" s="71" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="E4" s="71">
         <v>1</v>
       </c>
-      <c r="F4" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="I4" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>357</v>
-      </c>
-      <c r="K4" s="70">
-        <v>19.95</v>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72" t="s">
+        <v>436</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{5B76A7A3-2122-40E0-9EE3-155669D5A899}"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://ocm-s.com/OCM/bedding/full--full-xl--queen--and-king-bedding/luxurious-tie-dye-duvet-cover-set/p/ds_thd_yds_nav_fqn" xr:uid="{B448A245-2E9B-4684-9D8F-49E3CAE2A112}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4598,7 +4629,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4627,7 +4658,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4656,7 +4687,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4685,7 +4716,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4748,7 +4779,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>43</v>
@@ -4768,7 +4799,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
@@ -4788,7 +4819,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>45</v>
@@ -4808,7 +4839,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -4828,7 +4859,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
@@ -4861,71 +4892,71 @@
       <c r="A1" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4957,44 +4988,44 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6" style="46" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6" style="45" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5012,25 +5043,25 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="H2" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5051,22 +5082,22 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H3" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5081,28 +5112,28 @@
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H4" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33" t="s">
+      <c r="K4" s="32"/>
+      <c r="L4" s="32" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5124,19 +5155,19 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="H5" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="32"/>
+      <c r="L5" s="32" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5154,25 +5185,25 @@
         <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H6" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="60">
       <c r="A7" s="8" t="s">
@@ -5188,25 +5219,25 @@
         <v>66</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H7" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="33" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5227,22 +5258,22 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H8" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33" t="s">
+      <c r="K8" s="32"/>
+      <c r="L8" s="32" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5263,22 +5294,22 @@
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H9" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33" t="s">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5299,22 +5330,22 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H10" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33" t="s">
+      <c r="K10" s="32"/>
+      <c r="L10" s="32" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5335,22 +5366,22 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H11" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33" t="s">
+      <c r="K11" s="32"/>
+      <c r="L11" s="32" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5371,22 +5402,22 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H12" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33" t="s">
+      <c r="K12" s="32"/>
+      <c r="L12" s="32" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5407,22 +5438,22 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H13" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="60">
       <c r="A14" s="8" t="s">
@@ -5441,22 +5472,22 @@
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H14" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:12" ht="60">
       <c r="A15" s="8" t="s">
@@ -5475,22 +5506,22 @@
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H15" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H15" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12" ht="60">
       <c r="A16" s="8" t="s">
@@ -5509,22 +5540,22 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H16" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H16" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:12" ht="60">
       <c r="A17" s="8" t="s">
@@ -5543,22 +5574,22 @@
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H17" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12" ht="60">
       <c r="A18" s="8" t="s">
@@ -5577,22 +5608,22 @@
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H18" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="60">
       <c r="A19" s="8" t="s">
@@ -5611,22 +5642,22 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H19" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H19" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="60">
       <c r="A20" s="8" t="s">
@@ -5645,26 +5676,26 @@
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H20" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="34"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" ht="60">
       <c r="A21" s="8" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>49</v>
@@ -5676,25 +5707,25 @@
         <v>127</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H21" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H21" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33" t="s">
+      <c r="K21" s="32"/>
+      <c r="L21" s="32" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5709,10 +5740,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5727,13 +5758,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -5745,7 +5776,7 @@
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5753,321 +5784,410 @@
       <c r="A2" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="32"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" ht="165">
+      <c r="F3" s="25"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="32"/>
+      <c r="D4" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="47"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="47"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:7" ht="120">
+      <c r="B8" s="8"/>
+      <c r="C8" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="48"/>
-    </row>
-    <row r="11" spans="1:7" ht="30">
+      <c r="B10" s="8"/>
+      <c r="C10" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" ht="180">
       <c r="A11" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="48"/>
+      <c r="C11" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="45" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" s="48"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="45" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="48"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="E14" s="45" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" s="48"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="45" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" s="48"/>
-    </row>
-    <row r="16" spans="1:7" ht="30">
+      <c r="F15" s="25"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" ht="120">
       <c r="A16" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="E16" s="45" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:7" ht="120">
+      <c r="F16" s="25"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" ht="120">
+      <c r="A24" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E24" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F24" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G24" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6102,437 +6222,437 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J2" s="33" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="33"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="45">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J3" s="33" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J3" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="33"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="45">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J4" s="33" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="33"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="45">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E5" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J5" s="33" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="60">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="52" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J6" s="33" t="s">
+      <c r="H6" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J6" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="51" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J7" s="33" t="s">
+      <c r="H7" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J8" s="33" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J8" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="45">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J9" s="33" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="33"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="45">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J10" s="33" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="45">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="E11" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J11" s="33" t="s">
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J11" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="33"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="60">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="52" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J12" s="33" t="s">
+      <c r="H12" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J12" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="K12" s="51" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="50" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50" t="s">
+      <c r="F13" s="49"/>
+      <c r="G13" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J13" s="33" t="s">
+      <c r="H13" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J13" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="75">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>346</v>
-      </c>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J14" s="33" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J14" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="33"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" ht="75">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="E15" s="33" t="s">
+      <c r="D15" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J15" s="33" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J15" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="K15" s="33"/>
+      <c r="K15" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6553,31 +6673,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="35"/>
-    <col min="3" max="3" width="26.5703125" style="35" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" style="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" style="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="2" width="9.140625" style="34"/>
+    <col min="3" max="3" width="26.5703125" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="40" customFormat="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:5" s="39" customFormat="1">
+      <c r="A1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>175</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="42" customFormat="1">
+    <row r="2" spans="1:5" s="41" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>178</v>
       </c>
@@ -6587,11 +6707,11 @@
       <c r="C2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>176</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6605,10 +6725,10 @@
         <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6625,7 +6745,7 @@
         <v>182</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6647,16 +6767,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="36"/>
-    <col min="3" max="3" width="37.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="2" width="9.140625" style="35"/>
+    <col min="3" max="3" width="37.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71" style="34" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1">
+    <row r="1" spans="1:7" s="35" customFormat="1">
       <c r="A1" s="23" t="s">
         <v>65</v>
       </c>
@@ -6670,7 +6790,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>63</v>
@@ -6679,8 +6799,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="36" customFormat="1">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:7" s="35" customFormat="1">
+      <c r="A2" s="32" t="s">
         <v>198</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -6689,21 +6809,21 @@
       <c r="C2" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>369</v>
+      <c r="E2" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>342</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>199</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -6712,21 +6832,21 @@
       <c r="C3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="F3" s="73" t="s">
-        <v>369</v>
+      <c r="E3" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>342</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>200</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -6735,43 +6855,43 @@
       <c r="C4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>369</v>
+      <c r="E4" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>342</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="105">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>201</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="27" t="s">
-        <v>371</v>
+      <c r="E5" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="26" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
-        <v>370</v>
+      <c r="A6" s="32" t="s">
+        <v>343</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>49</v>
@@ -6779,13 +6899,13 @@
       <c r="C6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="37"/>
+      <c r="E6" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="36"/>
       <c r="G6" s="19" t="s">
         <v>136</v>
       </c>
@@ -6814,13 +6934,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="6" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="6.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="6" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="34" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6900,15 +7020,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="35"/>
-    <col min="3" max="3" width="23" style="35" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="35"/>
-    <col min="6" max="6" width="13.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="35"/>
-    <col min="11" max="11" width="33.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="2" width="9.140625" style="34"/>
+    <col min="3" max="3" width="23" style="34" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="34"/>
+    <col min="6" max="6" width="13.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="34"/>
+    <col min="11" max="11" width="33.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C9D800D-22E5-4D72-8AE8-6F33346BB7D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5163B80E-5DF5-4FEE-9F6F-9FD68713323D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75000" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="78720" yWindow="0" windowWidth="17790" windowHeight="5610" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="457">
   <si>
     <t>Accept</t>
   </si>
@@ -524,21 +524,7 @@
     <t>CRT-14</t>
   </si>
   <si>
-    <t>OrderSubtotal</t>
-  </si>
-  <si>
-    <t>OrderTotal</t>
-  </si>
-  <si>
-    <t>PromotionalDiscounts</t>
-  </si>
-  <si>
     <t xml:space="preserve">verify the cart pricing basics </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest
-Verify subtotal
-</t>
   </si>
   <si>
     <t xml:space="preserve">Guest
@@ -552,9 +538,6 @@
   </si>
   <si>
     <t>Provide a valid promotion code.</t>
-  </si>
-  <si>
-    <t>$0.00</t>
   </si>
   <si>
     <t>ValidationMSG</t>
@@ -743,11 +726,6 @@
   <si>
     <t>Loggedin
 Verify unit Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loggedin
-Verify subtotal
-</t>
   </si>
   <si>
     <t xml:space="preserve">Loggedin
@@ -1056,35 +1034,8 @@
 Please enter your password.</t>
   </si>
   <si>
-    <t>$24.97</t>
-  </si>
-  <si>
     <t>Guest
 Verify unit Price</t>
-  </si>
-  <si>
-    <t>Guest
-Verify discount
-Verify total</t>
-  </si>
-  <si>
-    <t>Loggedin
-Verify discount
-Verify total</t>
-  </si>
-  <si>
-    <t>Guest
-Verify unit Price
-Verify subtotal
-Verify discount
-Verify total</t>
-  </si>
-  <si>
-    <t>Loggedin
-Verify unit Price
-Verify subtotal
-Verify discount
-Verify total</t>
   </si>
   <si>
     <t>34</t>
@@ -1470,6 +1421,93 @@
   </si>
   <si>
     <t>$299.00</t>
+  </si>
+  <si>
+    <t>/OCM/bathroom/laundry-and-hampers/college-laundry-dryer-balls--set-of-2/p/ldry_drbl_bbl</t>
+  </si>
+  <si>
+    <t>College Laundry Dryer Balls, Set of 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ldry_drbl_bbl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you really have time to watch your clothes dry? Cut that wait with these amazing Dryer Balls. Just toss them in the dryer and watch as they lift and separate wet laundry, allowing the dryer’s hot air to flow through and dry clothes faster. </t>
+  </si>
+  <si>
+    <t>Guest
+Verify items</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - $3.00</t>
+  </si>
+  <si>
+    <t>ItemSubtotal</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>OrderSubTotal</t>
+  </si>
+  <si>
+    <t>$3.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest
+Verify items subtotal
+</t>
+  </si>
+  <si>
+    <t>Guest
+Verify order subtotal</t>
+  </si>
+  <si>
+    <t>$6.95</t>
+  </si>
+  <si>
+    <t>CRT-15</t>
+  </si>
+  <si>
+    <t>Loggedin
+Verify items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the cart items basics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the cart discounts basics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify order subtotal </t>
+  </si>
+  <si>
+    <t>CRT-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loggedin
+Verify items subtotal
+</t>
+  </si>
+  <si>
+    <t>Loggedin
+Verify order subtotal</t>
+  </si>
+  <si>
+    <t>Guest
+Verify items
+Verify unit Price
+Verify items subtotal
+Verify discount
+Verify order subtotal</t>
+  </si>
+  <si>
+    <t>Loggedin
+Verify items
+Verify unit Price
+Verify items subtotal
+Verify discount
+Verify order subtotal</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2292,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2264,7 +2302,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="56" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>50</v>
@@ -2272,13 +2310,13 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="57" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>49</v>
@@ -2286,7 +2324,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>49</v>
@@ -2353,7 +2391,7 @@
         <v>122</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -2371,10 +2409,10 @@
         <v>124</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2391,7 +2429,7 @@
         <v>107</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>110</v>
@@ -2411,10 +2449,10 @@
         <v>138</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -2432,47 +2470,47 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="14" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="17" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="17" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2554,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>51</v>
@@ -2536,22 +2574,22 @@
     </row>
     <row r="2" spans="1:9" s="41" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>57</v>
@@ -2560,7 +2598,7 @@
         <v>57</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="41" customFormat="1">
@@ -3156,7 +3194,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>59</v>
@@ -3171,15 +3209,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>59</v>
@@ -3194,15 +3232,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>59</v>
@@ -3217,15 +3255,15 @@
         <v>1</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>59</v>
@@ -3240,15 +3278,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>59</v>
@@ -3263,15 +3301,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>59</v>
@@ -3286,15 +3324,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>59</v>
@@ -3309,15 +3347,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>59</v>
@@ -3332,15 +3370,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>59</v>
@@ -3355,15 +3393,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>59</v>
@@ -3378,15 +3416,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="16" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>59</v>
@@ -3401,15 +3439,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>59</v>
@@ -3424,15 +3462,15 @@
         <v>1</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>59</v>
@@ -3447,15 +3485,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>59</v>
@@ -3470,15 +3508,15 @@
         <v>1</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>59</v>
@@ -3493,15 +3531,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>59</v>
@@ -3516,15 +3554,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>59</v>
@@ -3539,15 +3577,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>59</v>
@@ -3562,15 +3600,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>59</v>
@@ -3585,15 +3623,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>59</v>
@@ -3608,15 +3646,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>59</v>
@@ -3631,15 +3669,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>59</v>
@@ -3654,15 +3692,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>59</v>
@@ -3677,15 +3715,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>59</v>
@@ -3700,15 +3738,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>59</v>
@@ -3723,15 +3761,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>59</v>
@@ -3746,15 +3784,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>59</v>
@@ -3769,15 +3807,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>59</v>
@@ -3792,15 +3830,15 @@
         <v>1</v>
       </c>
       <c r="F29" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>59</v>
@@ -3815,15 +3853,15 @@
         <v>1</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>59</v>
@@ -3838,15 +3876,15 @@
         <v>1</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>59</v>
@@ -3861,15 +3899,15 @@
         <v>1</v>
       </c>
       <c r="F32" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>59</v>
@@ -3884,15 +3922,15 @@
         <v>1</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>59</v>
@@ -3907,15 +3945,15 @@
         <v>1</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>59</v>
@@ -3930,15 +3968,15 @@
         <v>1</v>
       </c>
       <c r="F35" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="16" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>59</v>
@@ -3953,15 +3991,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="16" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>59</v>
@@ -3976,15 +4014,15 @@
         <v>1</v>
       </c>
       <c r="F37" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="16" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>59</v>
@@ -3999,15 +4037,15 @@
         <v>1</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="16" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>59</v>
@@ -4022,15 +4060,15 @@
         <v>1</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="16" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>59</v>
@@ -4045,15 +4083,15 @@
         <v>1</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="16" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>59</v>
@@ -4068,15 +4106,15 @@
         <v>1</v>
       </c>
       <c r="F41" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="16" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>59</v>
@@ -4091,15 +4129,15 @@
         <v>1</v>
       </c>
       <c r="F42" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>59</v>
@@ -4114,15 +4152,15 @@
         <v>1</v>
       </c>
       <c r="F43" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="16" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>59</v>
@@ -4137,15 +4175,15 @@
         <v>1</v>
       </c>
       <c r="F44" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>59</v>
@@ -4160,15 +4198,15 @@
         <v>1</v>
       </c>
       <c r="F45" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>59</v>
@@ -4183,15 +4221,15 @@
         <v>1</v>
       </c>
       <c r="F46" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="16" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>59</v>
@@ -4206,15 +4244,15 @@
         <v>1</v>
       </c>
       <c r="F47" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="16" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>59</v>
@@ -4229,15 +4267,15 @@
         <v>1</v>
       </c>
       <c r="F48" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>59</v>
@@ -4252,15 +4290,15 @@
         <v>1</v>
       </c>
       <c r="F49" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="16" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>59</v>
@@ -4275,15 +4313,15 @@
         <v>1</v>
       </c>
       <c r="F50" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>59</v>
@@ -4298,15 +4336,15 @@
         <v>1</v>
       </c>
       <c r="F51" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="16" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>59</v>
@@ -4321,10 +4359,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="64" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4392,10 +4430,10 @@
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4427,19 +4465,19 @@
         <v>7</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>11</v>
@@ -4453,13 +4491,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>84</v>
@@ -4470,10 +4508,10 @@
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
       <c r="K2" s="70" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="L2" s="68" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="180">
@@ -4481,49 +4519,49 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E3" s="71">
         <v>1</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="I3" s="72"/>
       <c r="J3" s="72" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K3" s="72" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="L3" s="68" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60">
       <c r="A4" s="71" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E4" s="71">
         <v>1</v>
@@ -4532,14 +4570,42 @@
       <c r="G4" s="72"/>
       <c r="H4" s="72"/>
       <c r="I4" s="72" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="72" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L4" s="68" t="s">
-        <v>429</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="75">
+      <c r="A5" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="E5" s="68">
+        <v>1</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -4629,7 +4695,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4658,7 +4724,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4687,7 +4753,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4716,7 +4782,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4767,7 +4833,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -4779,7 +4845,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>43</v>
@@ -4787,7 +4853,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -4799,7 +4865,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
@@ -4819,7 +4885,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>45</v>
@@ -4839,7 +4905,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -4859,7 +4925,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
@@ -4890,7 +4956,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>50</v>
@@ -4898,7 +4964,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="60" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>49</v>
@@ -4906,7 +4972,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="61" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>49</v>
@@ -4914,7 +4980,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="61" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>49</v>
@@ -4922,7 +4988,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="61" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>49</v>
@@ -4930,7 +4996,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="61" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>49</v>
@@ -4938,7 +5004,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="61" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>49</v>
@@ -4946,7 +5012,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="61" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>49</v>
@@ -4954,7 +5020,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="61" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B9" s="59" t="s">
         <v>49</v>
@@ -5008,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>51</v>
@@ -5031,7 +5097,7 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>49</v>
@@ -5043,16 +5109,16 @@
         <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>57</v>
@@ -5062,12 +5128,12 @@
       </c>
       <c r="K2" s="32"/>
       <c r="L2" s="32" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>49</v>
@@ -5082,13 +5148,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>57</v>
@@ -5098,12 +5164,12 @@
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A4" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>49</v>
@@ -5112,19 +5178,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>57</v>
@@ -5134,12 +5200,12 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A5" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>49</v>
@@ -5155,10 +5221,10 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>57</v>
@@ -5168,12 +5234,12 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60">
       <c r="A6" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>49</v>
@@ -5185,16 +5251,16 @@
         <v>70</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>57</v>
@@ -5207,7 +5273,7 @@
     </row>
     <row r="7" spans="1:12" ht="60">
       <c r="A7" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>49</v>
@@ -5219,16 +5285,16 @@
         <v>66</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>57</v>
@@ -5238,12 +5304,12 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="33" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60">
       <c r="A8" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>49</v>
@@ -5258,13 +5324,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>57</v>
@@ -5274,12 +5340,12 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60">
       <c r="A9" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>49</v>
@@ -5294,13 +5360,13 @@
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I9" s="32" t="s">
         <v>57</v>
@@ -5310,12 +5376,12 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60">
       <c r="A10" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>49</v>
@@ -5330,13 +5396,13 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>57</v>
@@ -5346,12 +5412,12 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60">
       <c r="A11" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>49</v>
@@ -5366,13 +5432,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>57</v>
@@ -5382,12 +5448,12 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60">
       <c r="A12" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>49</v>
@@ -5402,13 +5468,13 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I12" s="32" t="s">
         <v>57</v>
@@ -5418,12 +5484,12 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60">
       <c r="A13" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>49</v>
@@ -5438,13 +5504,13 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I13" s="32" t="s">
         <v>57</v>
@@ -5457,7 +5523,7 @@
     </row>
     <row r="14" spans="1:12" ht="60">
       <c r="A14" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>49</v>
@@ -5472,13 +5538,13 @@
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I14" s="32" t="s">
         <v>57</v>
@@ -5491,7 +5557,7 @@
     </row>
     <row r="15" spans="1:12" ht="60">
       <c r="A15" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>49</v>
@@ -5506,13 +5572,13 @@
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I15" s="32" t="s">
         <v>57</v>
@@ -5540,13 +5606,13 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I16" s="32" t="s">
         <v>57</v>
@@ -5574,13 +5640,13 @@
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I17" s="32" t="s">
         <v>57</v>
@@ -5608,13 +5674,13 @@
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I18" s="32" t="s">
         <v>57</v>
@@ -5642,13 +5708,13 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I19" s="32" t="s">
         <v>57</v>
@@ -5676,13 +5742,13 @@
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>57</v>
@@ -5695,7 +5761,7 @@
     </row>
     <row r="21" spans="1:12" ht="60">
       <c r="A21" s="8" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>49</v>
@@ -5707,16 +5773,16 @@
         <v>127</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I21" s="32" t="s">
         <v>57</v>
@@ -5726,7 +5792,7 @@
       </c>
       <c r="K21" s="32"/>
       <c r="L21" s="32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5742,7 +5808,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5782,14 +5848,14 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="42" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E2" s="44" t="s">
         <v>2</v>
@@ -5799,14 +5865,14 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="42" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E3" s="44" t="s">
         <v>2</v>
@@ -5816,14 +5882,14 @@
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="42" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>6</v>
@@ -5833,14 +5899,14 @@
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="42" t="s">
         <v>130</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>6</v>
@@ -5850,14 +5916,14 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="42" t="s">
         <v>130</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>6</v>
@@ -5867,14 +5933,14 @@
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="42" t="s">
         <v>130</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>6</v>
@@ -5884,31 +5950,31 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="42" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="42" t="s">
         <v>130</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E9" s="44" t="s">
         <v>6</v>
@@ -5918,14 +5984,14 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="42" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>6</v>
@@ -5935,16 +6001,16 @@
     </row>
     <row r="11" spans="1:7" ht="180">
       <c r="A11" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>6</v>
@@ -5954,14 +6020,14 @@
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="42" t="s">
         <v>131</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E12" s="44" t="s">
         <v>2</v>
@@ -5971,14 +6037,14 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="42" t="s">
         <v>132</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E13" s="44" t="s">
         <v>2</v>
@@ -5988,14 +6054,14 @@
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="42" t="s">
         <v>133</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>2</v>
@@ -6005,14 +6071,14 @@
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="42" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>2</v>
@@ -6022,14 +6088,14 @@
     </row>
     <row r="16" spans="1:7" ht="120">
       <c r="A16" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="42" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>2</v>
@@ -6039,153 +6105,153 @@
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="8" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="42" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" s="8" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="42" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="8" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="42" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E20" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21" s="8" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="42" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" ht="30">
       <c r="A22" s="8" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="42" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="8" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="42" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="120">
       <c r="A24" s="8" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="42" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G24" s="47"/>
     </row>
@@ -6200,17 +6266,17 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="12" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="12"/>
     <col min="6" max="6" width="6" style="15" bestFit="1" customWidth="1"/>
@@ -6244,16 +6310,16 @@
         <v>87</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>158</v>
+        <v>440</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>160</v>
+        <v>441</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>159</v>
+        <v>442</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
@@ -6262,51 +6328,51 @@
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="33" t="s">
-        <v>161</v>
+        <v>449</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>321</v>
+        <v>438</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>166</v>
+        <v>443</v>
       </c>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="45">
+    <row r="3" spans="1:11" ht="30">
       <c r="A3" s="49" t="s">
         <v>146</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>166</v>
+        <v>443</v>
       </c>
       <c r="K3" s="32"/>
     </row>
@@ -6316,24 +6382,24 @@
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>163</v>
+        <v>444</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>166</v>
+        <v>443</v>
       </c>
       <c r="K4" s="32"/>
     </row>
@@ -6342,168 +6408,168 @@
         <v>148</v>
       </c>
       <c r="B5" s="32"/>
-      <c r="C5" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>322</v>
+      <c r="C5" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>159</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="32"/>
+        <v>266</v>
+      </c>
+      <c r="F5" s="33"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>166</v>
+        <v>443</v>
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="60">
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="51" t="s">
-        <v>273</v>
-      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45">
+        <v>443</v>
+      </c>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" ht="60">
       <c r="A7" s="49" t="s">
         <v>150</v>
       </c>
       <c r="B7" s="63"/>
-      <c r="C7" s="49" t="s">
-        <v>86</v>
+      <c r="C7" s="51" t="s">
+        <v>270</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
-        <v>88</v>
+      <c r="G7" s="51" t="s">
+        <v>267</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30">
+        <v>443</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="K8" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="1:11" ht="45">
+    </row>
+    <row r="9" spans="1:11" ht="30">
       <c r="A9" s="49" t="s">
         <v>152</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>228</v>
+        <v>448</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>166</v>
+        <v>443</v>
       </c>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" ht="45">
+    <row r="10" spans="1:11" ht="30">
       <c r="A10" s="49" t="s">
         <v>153</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>6</v>
+        <v>222</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>266</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>166</v>
+        <v>443</v>
       </c>
       <c r="K10" s="32"/>
     </row>
@@ -6512,147 +6578,201 @@
         <v>154</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="C11" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="32"/>
+      <c r="C11" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="33"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>166</v>
+        <v>443</v>
       </c>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="1:11" ht="60">
+    <row r="12" spans="1:11" ht="45">
       <c r="A12" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>271</v>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>223</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="51" t="s">
-        <v>273</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="45">
+        <v>443</v>
+      </c>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" ht="30">
       <c r="A13" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>164</v>
+      <c r="B13" s="32"/>
+      <c r="C13" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>454</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49" t="s">
-        <v>88</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="75">
+        <v>443</v>
+      </c>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" ht="60">
       <c r="A14" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="51" t="s">
+        <v>267</v>
+      </c>
       <c r="H14" s="32" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" spans="1:11" ht="75">
+        <v>443</v>
+      </c>
+      <c r="K14" s="51" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45">
       <c r="A15" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="K15" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" ht="90">
+      <c r="A16" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" ht="90">
+      <c r="A17" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="K17" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6691,15 +6811,15 @@
         <v>11</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="41" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>49</v>
@@ -6708,15 +6828,15 @@
         <v>93</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>49</v>
@@ -6725,27 +6845,27 @@
         <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6790,7 +6910,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>63</v>
@@ -6801,7 +6921,7 @@
     </row>
     <row r="2" spans="1:7" s="35" customFormat="1">
       <c r="A2" s="32" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>49</v>
@@ -6813,10 +6933,10 @@
         <v>100</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>135</v>
@@ -6824,7 +6944,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>49</v>
@@ -6836,10 +6956,10 @@
         <v>100</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>135</v>
@@ -6847,7 +6967,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="32" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>49</v>
@@ -6859,39 +6979,39 @@
         <v>102</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="105">
       <c r="A5" s="32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>104</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="26" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="32" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>49</v>
@@ -6903,7 +7023,7 @@
         <v>106</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="19" t="s">
@@ -6954,7 +7074,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>9</v>
@@ -6969,13 +7089,13 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>57</v>
@@ -6992,10 +7112,10 @@
         <v>90</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>57</v>
@@ -7056,25 +7176,25 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5163B80E-5DF5-4FEE-9F6F-9FD68713323D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{04CAB535-B809-4EE8-8465-EF84ED7254B9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="78720" yWindow="0" windowWidth="17790" windowHeight="5610" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="95460" yWindow="0" windowWidth="17790" windowHeight="5610" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="447">
   <si>
     <t>Accept</t>
   </si>
@@ -80,9 +80,6 @@
     <t>logged in user with saved visa payment and shipping address</t>
   </si>
   <si>
-    <t>logged in user with saved master payment and shipping address</t>
-  </si>
-  <si>
     <t>card</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>billingAddress</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>333</t>
   </si>
   <si>
@@ -191,21 +185,12 @@
     <t>coupon</t>
   </si>
   <si>
-    <t>loggedin
-old-user
-saved-shipping
-saved-payment</t>
-  </si>
-  <si>
     <t>UNITED STATES</t>
   </si>
   <si>
     <t>NEW YORK</t>
   </si>
   <si>
-    <t>254 park Ave</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
@@ -233,12 +218,6 @@
     <t>caseId</t>
   </si>
   <si>
-    <t>guest
-new-user
-new-shipping
-new-payment</t>
-  </si>
-  <si>
     <t>userName</t>
   </si>
   <si>
@@ -248,54 +227,9 @@
     <t xml:space="preserve">logged in user with saved visa payment and shipping address different addresses </t>
   </si>
   <si>
-    <t>fresh
-old-user
-new-shipping
-new-payment</t>
-  </si>
-  <si>
-    <t>guest
-old-user
-new-shipping
-new-payment</t>
-  </si>
-  <si>
     <t>fresh user with saved visa payment and shipping address</t>
   </si>
   <si>
-    <t>guest user with saved visa payment and shipping address same address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guest user with saved visa payment and shipping address different addresses </t>
-  </si>
-  <si>
-    <t>guest user with saved visa payment and shipping address</t>
-  </si>
-  <si>
-    <t>logged in user with saved master payment and shipping address same address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logged in user with saved master payment and shipping address different addresses </t>
-  </si>
-  <si>
-    <t>fresh user with saved master payment and shipping address same address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh user with saved master payment and shipping address different addresses </t>
-  </si>
-  <si>
-    <t>fresh user with saved master payment and shipping address</t>
-  </si>
-  <si>
-    <t>guest user with saved master payment and shipping address same address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guest user with saved master payment and shipping address different addresses </t>
-  </si>
-  <si>
-    <t>guest user with saved master payment and shipping address</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -311,12 +245,6 @@
     <t>invalid</t>
   </si>
   <si>
-    <t>fresh
-new-user
-new-shipping
-new-payment</t>
-  </si>
-  <si>
     <t>edit address</t>
   </si>
   <si>
@@ -389,21 +317,6 @@
     <t>product</t>
   </si>
   <si>
-    <t>COB-15</t>
-  </si>
-  <si>
-    <t>COB-16</t>
-  </si>
-  <si>
-    <t>COB-17</t>
-  </si>
-  <si>
-    <t>COB-18</t>
-  </si>
-  <si>
-    <t>COB-19</t>
-  </si>
-  <si>
     <t>ABV-1</t>
   </si>
   <si>
@@ -423,15 +336,6 @@
   </si>
   <si>
     <t>Try to login with invalid password</t>
-  </si>
-  <si>
-    <t>login during checkout</t>
-  </si>
-  <si>
-    <t>logging During Checkout
-old-user
-new-shipping
-new-payment</t>
   </si>
   <si>
     <t>Guest, verify the PDP basics id</t>
@@ -617,24 +521,6 @@
   </si>
   <si>
     <t>COB-08</t>
-  </si>
-  <si>
-    <t>COB-09</t>
-  </si>
-  <si>
-    <t>COB-10</t>
-  </si>
-  <si>
-    <t>COB-11</t>
-  </si>
-  <si>
-    <t>COB-12</t>
-  </si>
-  <si>
-    <t>COB-13</t>
-  </si>
-  <si>
-    <t>COB-14</t>
   </si>
   <si>
     <t>REG-01</t>
@@ -1044,9 +930,6 @@
     <t>sort LTH</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
     <t>shippingType</t>
   </si>
   <si>
@@ -1056,22 +939,7 @@
     <t>AAGRND</t>
   </si>
   <si>
-    <t>BB2DAY</t>
-  </si>
-  <si>
-    <t>CC1DAY</t>
-  </si>
-  <si>
     <t>P3</t>
-  </si>
-  <si>
-    <t>loggedin
-new-user
-new-shipping
-new-payment</t>
-  </si>
-  <si>
-    <t>COB-20</t>
   </si>
   <si>
     <t>type</t>
@@ -1508,6 +1376,92 @@
 Verify items subtotal
 Verify discount
 Verify order subtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2nd Day</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>245 park Ave</t>
+  </si>
+  <si>
+    <t>paypal</t>
+  </si>
+  <si>
+    <t>ibatta@infinitetiers.com</t>
+  </si>
+  <si>
+    <t>0599226323</t>
+  </si>
+  <si>
+    <t>guest
+old-user</t>
+  </si>
+  <si>
+    <t>logging During Checkout
+old-user</t>
+  </si>
+  <si>
+    <t>fresh
+new-shipping
+new-payment</t>
+  </si>
+  <si>
+    <t>AC-02</t>
+  </si>
+  <si>
+    <t>AC-03</t>
+  </si>
+  <si>
+    <t>AC-04</t>
+  </si>
+  <si>
+    <t>AC-05</t>
+  </si>
+  <si>
+    <t>AC-06</t>
+  </si>
+  <si>
+    <t>AC-07</t>
+  </si>
+  <si>
+    <t>AC-08</t>
+  </si>
+  <si>
+    <t>AC-09</t>
+  </si>
+  <si>
+    <t>AC-10</t>
+  </si>
+  <si>
+    <t>AC-11</t>
+  </si>
+  <si>
+    <t>AC-12</t>
+  </si>
+  <si>
+    <t>AC-13</t>
+  </si>
+  <si>
+    <t>AC-14</t>
+  </si>
+  <si>
+    <t>AC-15</t>
+  </si>
+  <si>
+    <t>Loggedin
+old-user</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1695,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1942,6 +1896,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2302,32 +2257,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="56" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="57" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2359,10 +2314,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="35" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>11</v>
@@ -2374,143 +2329,143 @@
         <v>9</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="17" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="14" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="17" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="17" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +2482,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2545,28 +2500,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="39" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>9</v>
@@ -2574,186 +2529,438 @@
     </row>
     <row r="2" spans="1:9" s="41" customFormat="1">
       <c r="A2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="41" customFormat="1">
+      <c r="A3" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="41" customFormat="1">
+      <c r="A4" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="41" customFormat="1">
+      <c r="A5" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="41" customFormat="1">
+      <c r="A6" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="41" customFormat="1">
+      <c r="A7" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="41" customFormat="1">
+      <c r="A8" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="41" customFormat="1">
+      <c r="A9" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="41" customFormat="1">
+      <c r="A10" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="41" customFormat="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" s="41" customFormat="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" s="41" customFormat="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" s="41" customFormat="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" s="41" customFormat="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" s="41" customFormat="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" s="41" customFormat="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" s="41" customFormat="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="20"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="20"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="20"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="20"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="20"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="16"/>
+      <c r="A15" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="20"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="16"/>
+      <c r="A16" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="20"/>
@@ -2844,136 +3051,136 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="51"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="51"/>
       <c r="C25" s="52"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="51"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="51"/>
       <c r="C26" s="52"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="51"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="51"/>
       <c r="C27" s="52"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="51"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="51"/>
       <c r="C28" s="52"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="51"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="51"/>
       <c r="C29" s="52"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="51"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="51"/>
       <c r="C30" s="52"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="51"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="51"/>
       <c r="C31" s="52"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="51"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="51"/>
       <c r="C32" s="52"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="51"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="51"/>
       <c r="C33" s="52"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="51"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="51"/>
       <c r="C34" s="52"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="51"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="51"/>
       <c r="C35" s="52"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="51"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="51"/>
       <c r="C36" s="52"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="51"/>
@@ -3154,7 +3361,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3174,33 +3381,33 @@
         <v>4</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>0</v>
@@ -3209,21 +3416,21 @@
         <v>1</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>0</v>
@@ -3232,21 +3439,21 @@
         <v>1</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>0</v>
@@ -3255,21 +3462,21 @@
         <v>1</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="16" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>0</v>
@@ -3278,21 +3485,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="16" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>0</v>
@@ -3301,21 +3508,21 @@
         <v>1</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>336</v>
+        <v>294</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>0</v>
@@ -3324,21 +3531,21 @@
         <v>1</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>0</v>
@@ -3347,21 +3554,21 @@
         <v>1</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>0</v>
@@ -3370,21 +3577,21 @@
         <v>1</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>0</v>
@@ -3393,21 +3600,21 @@
         <v>1</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="16" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>0</v>
@@ -3416,21 +3623,21 @@
         <v>1</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="16" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>0</v>
@@ -3439,21 +3646,21 @@
         <v>1</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="16" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>0</v>
@@ -3462,21 +3669,21 @@
         <v>1</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>0</v>
@@ -3485,21 +3692,21 @@
         <v>1</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>0</v>
@@ -3508,21 +3715,21 @@
         <v>1</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>0</v>
@@ -3531,21 +3738,21 @@
         <v>1</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>0</v>
@@ -3554,21 +3761,21 @@
         <v>1</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>0</v>
@@ -3577,21 +3784,21 @@
         <v>1</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>0</v>
@@ -3600,21 +3807,21 @@
         <v>1</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>0</v>
@@ -3623,21 +3830,21 @@
         <v>1</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>0</v>
@@ -3646,21 +3853,21 @@
         <v>1</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>0</v>
@@ -3669,21 +3876,21 @@
         <v>1</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>0</v>
@@ -3692,21 +3899,21 @@
         <v>1</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>0</v>
@@ -3715,21 +3922,21 @@
         <v>1</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>0</v>
@@ -3738,21 +3945,21 @@
         <v>1</v>
       </c>
       <c r="F25" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>0</v>
@@ -3761,21 +3968,21 @@
         <v>1</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>0</v>
@@ -3784,21 +3991,21 @@
         <v>1</v>
       </c>
       <c r="F27" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>0</v>
@@ -3807,21 +4014,21 @@
         <v>1</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>0</v>
@@ -3830,21 +4037,21 @@
         <v>1</v>
       </c>
       <c r="F29" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>0</v>
@@ -3853,21 +4060,21 @@
         <v>1</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>0</v>
@@ -3876,21 +4083,21 @@
         <v>1</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>0</v>
@@ -3899,21 +4106,21 @@
         <v>1</v>
       </c>
       <c r="F32" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="16" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>0</v>
@@ -3922,21 +4129,21 @@
         <v>1</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="16" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>0</v>
@@ -3945,21 +4152,21 @@
         <v>1</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="16" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>0</v>
@@ -3968,21 +4175,21 @@
         <v>1</v>
       </c>
       <c r="F35" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="16" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>0</v>
@@ -3991,21 +4198,21 @@
         <v>1</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="16" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>0</v>
@@ -4014,21 +4221,21 @@
         <v>1</v>
       </c>
       <c r="F37" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="16" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>0</v>
@@ -4037,21 +4244,21 @@
         <v>1</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="16" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>0</v>
@@ -4060,21 +4267,21 @@
         <v>1</v>
       </c>
       <c r="F39" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="16" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>0</v>
@@ -4083,21 +4290,21 @@
         <v>1</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="16" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>0</v>
@@ -4106,21 +4313,21 @@
         <v>1</v>
       </c>
       <c r="F41" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="16" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>0</v>
@@ -4129,21 +4336,21 @@
         <v>1</v>
       </c>
       <c r="F42" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="16" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>0</v>
@@ -4152,21 +4359,21 @@
         <v>1</v>
       </c>
       <c r="F43" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="16" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>0</v>
@@ -4175,21 +4382,21 @@
         <v>1</v>
       </c>
       <c r="F44" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="16" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>0</v>
@@ -4198,21 +4405,21 @@
         <v>1</v>
       </c>
       <c r="F45" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="16" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>0</v>
@@ -4221,21 +4428,21 @@
         <v>1</v>
       </c>
       <c r="F46" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="16" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>0</v>
@@ -4244,21 +4451,21 @@
         <v>1</v>
       </c>
       <c r="F47" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="16" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>0</v>
@@ -4267,21 +4474,21 @@
         <v>1</v>
       </c>
       <c r="F48" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="16" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>0</v>
@@ -4290,21 +4497,21 @@
         <v>1</v>
       </c>
       <c r="F49" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="16" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>0</v>
@@ -4313,21 +4520,21 @@
         <v>1</v>
       </c>
       <c r="F50" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="16" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>0</v>
@@ -4336,21 +4543,21 @@
         <v>1</v>
       </c>
       <c r="F51" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="16" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>0</v>
@@ -4359,10 +4566,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="64" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4419,9 +4626,11 @@
     <hyperlink ref="F51" r:id="rId50" xr:uid="{9644146D-2ED3-416E-8212-3897AF06AEC6}"/>
     <hyperlink ref="F52" r:id="rId51" xr:uid="{838AC9B9-415F-4EBD-AB0D-F0998D1F2B03}"/>
     <hyperlink ref="G3" r:id="rId52" xr:uid="{9BC5A6CC-CCE0-4790-AEC1-33CBD6EF2F59}"/>
+    <hyperlink ref="G4" r:id="rId53" xr:uid="{FB0D56F9-F309-4CDC-82E3-EDDB83308CDF}"/>
+    <hyperlink ref="G6" r:id="rId54" xr:uid="{29CB31C1-6275-4012-9A03-33756603365B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -4453,10 +4662,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>3</v>
@@ -4465,25 +4674,25 @@
         <v>7</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60">
@@ -4491,16 +4700,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="68"/>
@@ -4508,10 +4717,10 @@
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
       <c r="K2" s="70" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="L2" s="68" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="180">
@@ -4519,49 +4728,49 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="E3" s="71">
         <v>1</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="I3" s="72"/>
       <c r="J3" s="72" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="K3" s="72" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="L3" s="68" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60">
       <c r="A4" s="71" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="E4" s="71">
         <v>1</v>
@@ -4570,28 +4779,28 @@
       <c r="G4" s="72"/>
       <c r="H4" s="72"/>
       <c r="I4" s="72" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="72" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="L4" s="68" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="75">
       <c r="A5" s="68" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="E5" s="68">
         <v>1</v>
@@ -4602,10 +4811,10 @@
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
       <c r="K5" s="68" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="L5" s="68" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4625,7 +4834,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4642,36 +4851,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -4680,27 +4889,27 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
@@ -4709,27 +4918,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
@@ -4738,27 +4947,27 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>425</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -4767,22 +4976,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4796,79 +5005,80 @@
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>317</v>
+        <v>424</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4876,19 +5086,19 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>317</v>
+        <v>424</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4896,19 +5106,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>317</v>
+        <v>424</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4916,19 +5126,39 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>317</v>
+        <v>424</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -4956,74 +5186,74 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="60" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="61" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="61" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="61" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="61" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="61" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="61" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="61" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5037,10 +5267,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5048,21 +5278,20 @@
     <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6" style="45" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6" style="45" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1">
+    <row r="1" spans="1:11" s="3" customFormat="1">
       <c r="A1" s="28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>11</v>
@@ -5074,726 +5303,417 @@
         <v>5</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>318</v>
+        <v>49</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>41</v>
+      <c r="J1" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="60">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="I2" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="60">
+        <v>53</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="I3" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="60">
+        <v>53</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="45">
       <c r="A4" s="8" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>324</v>
+        <v>446</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>263</v>
+        <v>422</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="60">
+        <v>53</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="45">
       <c r="A5" s="8" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="I5" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60">
+        <v>53</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45">
       <c r="A6" s="8" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>431</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>263</v>
+        <v>420</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
-    </row>
-    <row r="7" spans="1:12" ht="60">
+        <v>53</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60">
       <c r="A7" s="8" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>66</v>
+        <v>429</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>263</v>
+        <v>421</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="60">
+        <v>53</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60">
       <c r="A8" s="8" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>71</v>
+        <v>429</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>263</v>
+        <v>421</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60">
+        <v>53</v>
+      </c>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="8" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>71</v>
+        <v>429</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>263</v>
+        <v>422</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="60">
-      <c r="A10" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>57</v>
-      </c>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="60">
-      <c r="A11" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="60">
-      <c r="A12" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="60">
-      <c r="A13" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="1:12" ht="60">
-      <c r="A14" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="1:12" ht="60">
-      <c r="A15" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:12" ht="60">
-      <c r="A16" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="1:12" ht="60">
-      <c r="A17" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="1:12" ht="60">
-      <c r="A18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="1:12" ht="60">
-      <c r="A19" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>57</v>
-      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:12" ht="60">
-      <c r="A20" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="1:12" ht="60">
-      <c r="A21" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32" t="s">
-        <v>210</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5825,10 +5745,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>11</v>
@@ -5837,25 +5757,25 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="42" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="E2" s="44" t="s">
         <v>2</v>
@@ -5865,14 +5785,14 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="42" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="E3" s="44" t="s">
         <v>2</v>
@@ -5882,14 +5802,14 @@
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="8" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="42" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>6</v>
@@ -5899,14 +5819,14 @@
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="42" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>6</v>
@@ -5916,14 +5836,14 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="42" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>6</v>
@@ -5933,14 +5853,14 @@
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="42" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>6</v>
@@ -5950,31 +5870,31 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="42" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="8" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="42" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="E9" s="44" t="s">
         <v>6</v>
@@ -5984,14 +5904,14 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="42" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>6</v>
@@ -6001,16 +5921,16 @@
     </row>
     <row r="11" spans="1:7" ht="180">
       <c r="A11" s="8" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>6</v>
@@ -6020,14 +5940,14 @@
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="42" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E12" s="44" t="s">
         <v>2</v>
@@ -6037,14 +5957,14 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="42" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="E13" s="44" t="s">
         <v>2</v>
@@ -6054,14 +5974,14 @@
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="42" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>2</v>
@@ -6071,14 +5991,14 @@
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="42" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>2</v>
@@ -6088,14 +6008,14 @@
     </row>
     <row r="16" spans="1:7" ht="120">
       <c r="A16" s="8" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="42" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>2</v>
@@ -6105,153 +6025,153 @@
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="8" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="42" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="8" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="42" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" ht="30">
       <c r="A19" s="8" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="42" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="8" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="42" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="E20" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21" s="8" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="42" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" ht="30">
       <c r="A22" s="8" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="42" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="8" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="42" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="120">
       <c r="A24" s="8" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="42" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="G24" s="47"/>
     </row>
@@ -6268,7 +6188,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6289,10 +6209,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>11</v>
@@ -6307,470 +6227,470 @@
         <v>9</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="A2" s="49" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="33" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="49" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="33" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="45">
       <c r="A4" s="49" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="45">
       <c r="A5" s="49" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="30">
       <c r="A6" s="49" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="20" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="60">
       <c r="A7" s="49" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="51" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="51" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45">
       <c r="A8" s="49" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="49" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K8" s="49" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30">
       <c r="A9" s="49" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="33" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="30">
       <c r="A10" s="49" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="33" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="45">
       <c r="A11" s="49" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="33" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="45">
       <c r="A12" s="49" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="33" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" ht="30">
       <c r="A13" s="49" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="20" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="49" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B14" s="63"/>
       <c r="C14" s="51" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F14" s="49"/>
       <c r="G14" s="51" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K14" s="51" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45">
       <c r="A15" s="49" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="49" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="90">
       <c r="A16" s="49" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" ht="90">
       <c r="A17" s="49" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="K17" s="32"/>
     </row>
@@ -6802,70 +6722,70 @@
   <sheetData>
     <row r="1" spans="1:5" s="39" customFormat="1">
       <c r="A1" s="37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="41" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6898,10 +6818,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="35" customFormat="1">
       <c r="A1" s="23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>11</v>
@@ -6910,124 +6830,124 @@
         <v>10</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="35" customFormat="1">
       <c r="A2" s="32" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="32" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="32" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="105">
       <c r="A5" s="32" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="26" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="32" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="19" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -7065,60 +6985,60 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="20" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>197</v>
-      </c>
       <c r="F2" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60">
       <c r="A3" s="20" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7153,10 +7073,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
@@ -7168,7 +7088,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>9</v>
@@ -7176,25 +7096,25 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="17" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
